--- a/docs/work_scheduler.xlsx
+++ b/docs/work_scheduler.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE604D4-2643-453E-ACF7-0E8521A84908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AC5F91-B286-4C3B-AA74-304431DE1B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="133">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -254,14 +254,6 @@
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>フロントエンド</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>バックエンド</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
     <t>工程表</t>
     <rPh sb="0" eb="3">
       <t>コウテイヒョウ</t>
@@ -293,17 +285,6 @@
     <phoneticPr fontId="41"/>
   </si>
   <si>
-    <t>Webデプロイ</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>フロントエンド/バックエンド連携</t>
-    <rPh sb="14" eb="16">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
     <t>三浦</t>
     <rPh sb="0" eb="2">
       <t>ミウラ</t>
@@ -360,23 +341,11 @@
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>ダッシュボード：スクリプト</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
     <t>ホームビュー：デザイン</t>
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>ホームビュー：スクリプト</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
     <t>セッティングビュー：デザイン</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>セッティングビュー：スクリプト</t>
     <phoneticPr fontId="37"/>
   </si>
   <si>
@@ -475,21 +444,6 @@
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>ローカル環境デプロイ</t>
-    <rPh sb="4" eb="6">
-      <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>GitHubPageデプロイ</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>Herokuデプロイ</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
     <t>DBをSQLite→PostgreDBに移管</t>
     <rPh sb="20" eb="22">
       <t>イカン</t>
@@ -558,6 +512,161 @@
     <rPh sb="0" eb="2">
       <t>ニッスウ</t>
     </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>チャートビュー：スクリプト(JS)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ダッシュボード：スクリプト(JS)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ホームビュー：スクリプト(JS)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>セッティングビュー：スクリプト(JS)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ログインビュー：デザイン</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ログインビュー：スクリプト(JS)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>チャートビュー：スクリプトTS化</t>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ダッシュボード：スクリプトTS化</t>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ホームビュー：スクリプトTS化</t>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>セッティングビュー：スクリプトTS化</t>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ログインビュー：スクリプトTS化</t>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>オーソライズデータモデル作成</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>オーソライズデータリポジトリ作成</t>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ローカル環境デプロイ(JS)</t>
+    <rPh sb="4" eb="6">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>GitHubPageデプロイ(JS)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>Herokuデプロイ(JS)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>Herokuデプロイ(TS)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ローカル環境デプロイ(TS)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>GitHubPageデプロイ(TS)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>フロントエンド/バックエンド連携 Web</t>
+    <rPh sb="14" eb="16">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>フロントエンド Web(JS-React)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>バックエンド Web(C#-ASPNetCore)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>デプロイ Web(JS-React)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>フロントエンド Web(TS-React)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>デプロイ Web(TS-React)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>フロントエンド Native(C#-WPF)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>バックエンド Native(C#)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>チャートビュー</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ダッシュボードビュー</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ホームビュー</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>セッテングビュー</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ログインビュー</t>
     <phoneticPr fontId="37"/>
   </si>
 </sst>
@@ -2220,7 +2329,164 @@
     <cellStyle name="名前" xfId="11" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="良い" xfId="18" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2379,43 +2645,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -2554,21 +2783,21 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDo_リスト" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
-      <tableStyleElement type="totalRow" dxfId="27"/>
-      <tableStyleElement type="firstColumn" dxfId="26"/>
-      <tableStyleElement type="lastColumn" dxfId="25"/>
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="41"/>
+      <tableStyleElement type="headerRow" dxfId="40"/>
+      <tableStyleElement type="totalRow" dxfId="39"/>
+      <tableStyleElement type="firstColumn" dxfId="38"/>
+      <tableStyleElement type="lastColumn" dxfId="37"/>
+      <tableStyleElement type="firstRowStripe" dxfId="36"/>
+      <tableStyleElement type="secondRowStripe" dxfId="35"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="34"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="33"/>
     </tableStyle>
     <tableStyle name="スケジュール" pivot="0" count="4" xr9:uid="{FE5C26DC-6021-4BEB-853E-58C48F20C49F}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="firstColumn" dxfId="18"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="17"/>
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="firstColumn" dxfId="30"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="29"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2718,17 +2947,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56394D97-6440-4092-A3BA-97FF8EEE0B46}" name="スケジュール" displayName="スケジュール" ref="B3:I51" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56394D97-6440-4092-A3BA-97FF8EEE0B46}" name="スケジュール" displayName="スケジュール" ref="B3:I51" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="B3:I51" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{22735272-9BBC-4423-8255-E4B481ADDF75}" name="時刻" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{B0FE321B-C664-4D0A-816C-79B7234A3276}" name="月" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{A7F49256-5CB0-418B-B339-8E5DF0863F43}" name="火" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{6D1E9B6A-66E9-4CF7-B775-E3C821FB11D7}" name="水" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{E7486B4F-138B-48BE-8A69-2E626874BF29}" name="木" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{21A57594-FF22-40A8-B61F-6FBFA0CF2303}" name="金" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{A8173C71-34E7-4BF1-9E38-5CA9F96BC2B7}" name="土" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{D4746B53-62D0-48F8-B228-8BE696A15DB7}" name="日" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{22735272-9BBC-4423-8255-E4B481ADDF75}" name="時刻" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{B0FE321B-C664-4D0A-816C-79B7234A3276}" name="月" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{A7F49256-5CB0-418B-B339-8E5DF0863F43}" name="火" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{6D1E9B6A-66E9-4CF7-B775-E3C821FB11D7}" name="水" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{E7486B4F-138B-48BE-8A69-2E626874BF29}" name="木" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{21A57594-FF22-40A8-B61F-6FBFA0CF2303}" name="金" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{A8173C71-34E7-4BF1-9E38-5CA9F96BC2B7}" name="土" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{D4746B53-62D0-48F8-B228-8BE696A15DB7}" name="日" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="スケジュール" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
   <extLst>
@@ -3005,11 +3234,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM41"/>
+  <dimension ref="A1:BM61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3019,7 +3248,7 @@
     <col min="3" max="4" width="9.453125" customWidth="1"/>
     <col min="5" max="5" width="10.6328125" customWidth="1"/>
     <col min="6" max="6" width="10.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="2.6328125" customWidth="1"/>
     <col min="9" max="9" width="6.1796875" hidden="1" customWidth="1"/>
     <col min="10" max="65" width="2.54296875" customWidth="1"/>
@@ -3055,7 +3284,7 @@
       <c r="C3" s="124"/>
       <c r="D3" s="124"/>
       <c r="E3" s="125" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F3" s="121">
         <v>44468</v>
@@ -3400,10 +3629,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>30</v>
@@ -3716,7 +3945,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -3725,7 +3954,7 @@
       <c r="G8" s="48"/>
       <c r="H8" s="49"/>
       <c r="I8" s="49" t="str">
-        <f t="shared" ref="I8:I38" si="4">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="I8:I58" si="4">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="J8" s="9"/>
@@ -3790,7 +4019,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>53</v>
@@ -3875,10 +4104,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D10" s="24">
         <v>1</v>
@@ -3891,7 +4120,7 @@
         <v>44469</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" ref="G10:G34" si="6">F10+(D10-1)</f>
+        <f t="shared" ref="G10:G38" si="6">F10+(D10-1)</f>
         <v>44469</v>
       </c>
       <c r="H10" s="49"/>
@@ -3959,10 +4188,10 @@
     <row r="11" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D11" s="24">
         <v>1</v>
@@ -4043,16 +4272,16 @@
     <row r="12" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="32" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D12" s="24">
         <v>1</v>
       </c>
       <c r="E12" s="50">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" si="5"/>
@@ -4127,16 +4356,16 @@
     <row r="13" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D13" s="24">
         <v>1</v>
       </c>
       <c r="E13" s="50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" si="5"/>
@@ -4211,10 +4440,10 @@
     <row r="14" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="32" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D14" s="24">
         <v>1</v>
@@ -4292,10 +4521,10 @@
     <row r="15" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="32" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" s="24">
         <v>1</v>
@@ -4373,10 +4602,10 @@
     <row r="16" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="32" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="24">
         <v>1</v>
@@ -4452,22 +4681,29 @@
       <c r="BM16" s="9"/>
     </row>
     <row r="17" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="53"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="24">
+        <v>1</v>
+      </c>
+      <c r="E17" s="50">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <f t="shared" ref="F17:F18" si="7">G16+1</f>
+        <v>44476</v>
+      </c>
+      <c r="G17" s="18">
+        <f t="shared" ref="G17:G18" si="8">F17+(D17-1)</f>
+        <v>44476</v>
+      </c>
       <c r="H17" s="49"/>
-      <c r="I17" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="I17" s="49"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -4527,29 +4763,28 @@
     </row>
     <row r="18" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
-      <c r="B18" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="26">
+      <c r="B18" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="24">
         <v>1</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="19">
-        <f>G16+1</f>
-        <v>44476</v>
-      </c>
-      <c r="G18" s="19">
-        <f t="shared" si="6"/>
-        <v>44476</v>
+      <c r="E18" s="50">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" si="7"/>
+        <v>44477</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="8"/>
+        <v>44477</v>
       </c>
       <c r="H18" s="49"/>
-      <c r="I18" s="49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="I18" s="49"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -4608,27 +4843,22 @@
       <c r="BM18" s="9"/>
     </row>
     <row r="19" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
-      <c r="B19" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="26">
-        <v>1</v>
-      </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="19">
-        <f>G18+1</f>
-        <v>44477</v>
-      </c>
-      <c r="G19" s="19">
-        <f t="shared" si="6"/>
-        <v>44477</v>
-      </c>
+      <c r="A19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
+      <c r="I19" s="49" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -4687,21 +4917,21 @@
       <c r="BM19" s="9"/>
     </row>
     <row r="20" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="33" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" s="26">
         <v>1</v>
       </c>
       <c r="E20" s="54">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F20" s="19">
-        <f>G19+1</f>
+        <f>G18+1</f>
         <v>44478</v>
       </c>
       <c r="G20" s="19">
@@ -4773,19 +5003,19 @@
     <row r="21" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D21" s="26">
         <v>1</v>
       </c>
       <c r="E21" s="54">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F21" s="19">
-        <f t="shared" ref="F21:F24" si="7">G20+1</f>
+        <f>G20+1</f>
         <v>44479</v>
       </c>
       <c r="G21" s="19">
@@ -4793,10 +5023,7 @@
         <v>44479</v>
       </c>
       <c r="H21" s="49"/>
-      <c r="I21" s="49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="I21" s="49"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -4809,8 +5036,8 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
@@ -4855,19 +5082,21 @@
       <c r="BM21" s="9"/>
     </row>
     <row r="22" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="33" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D22" s="26">
         <v>1</v>
       </c>
-      <c r="E22" s="54"/>
+      <c r="E22" s="54">
+        <v>0.5</v>
+      </c>
       <c r="F22" s="19">
-        <f t="shared" si="7"/>
+        <f>G21+1</f>
         <v>44480</v>
       </c>
       <c r="G22" s="19">
@@ -4939,17 +5168,19 @@
     <row r="23" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="33" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D23" s="26">
         <v>1</v>
       </c>
-      <c r="E23" s="54"/>
+      <c r="E23" s="54">
+        <v>0.5</v>
+      </c>
       <c r="F23" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F23:F26" si="9">G22+1</f>
         <v>44481</v>
       </c>
       <c r="G23" s="19">
@@ -4973,11 +5204,11 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="10"/>
+      <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
@@ -5021,17 +5252,19 @@
     <row r="24" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="33" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D24" s="26">
         <v>1</v>
       </c>
-      <c r="E24" s="54"/>
+      <c r="E24" s="54">
+        <v>0</v>
+      </c>
       <c r="F24" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>44482</v>
       </c>
       <c r="G24" s="19">
@@ -5039,7 +5272,10 @@
         <v>44482</v>
       </c>
       <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
+      <c r="I24" s="49">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -5056,7 +5292,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
-      <c r="Z24" s="10"/>
+      <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
@@ -5098,21 +5334,31 @@
       <c r="BM24" s="9"/>
     </row>
     <row r="25" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="57"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1</v>
+      </c>
+      <c r="E25" s="54">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="9"/>
+        <v>44483</v>
+      </c>
+      <c r="G25" s="19">
+        <f t="shared" si="6"/>
+        <v>44483</v>
+      </c>
       <c r="H25" s="49"/>
-      <c r="I25" s="49" t="str">
+      <c r="I25" s="49">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -5130,7 +5376,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
+      <c r="Z25" s="10"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
@@ -5173,29 +5419,28 @@
     </row>
     <row r="26" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
-      <c r="B26" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="28">
+      <c r="B26" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="26">
         <v>1</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="20">
-        <f>G24+1</f>
-        <v>44483</v>
-      </c>
-      <c r="G26" s="20">
+      <c r="E26" s="54">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19">
+        <f t="shared" si="9"/>
+        <v>44484</v>
+      </c>
+      <c r="G26" s="19">
         <f t="shared" si="6"/>
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="H26" s="49"/>
-      <c r="I26" s="49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="I26" s="49"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -5212,7 +5457,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
+      <c r="Z26" s="10"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
@@ -5255,29 +5500,28 @@
     </row>
     <row r="27" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
-      <c r="B27" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="28">
+      <c r="B27" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="26">
         <v>1</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="20">
-        <f>G26+1</f>
-        <v>44484</v>
-      </c>
-      <c r="G27" s="20">
-        <f t="shared" si="6"/>
-        <v>44484</v>
+      <c r="E27" s="54">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
+        <f t="shared" ref="F27:F28" si="10">G26+1</f>
+        <v>44485</v>
+      </c>
+      <c r="G27" s="19">
+        <f t="shared" ref="G27:G28" si="11">F27+(D27-1)</f>
+        <v>44485</v>
       </c>
       <c r="H27" s="49"/>
-      <c r="I27" s="49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="I27" s="49"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -5294,7 +5538,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
+      <c r="Z27" s="10"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
@@ -5337,29 +5581,28 @@
     </row>
     <row r="28" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
-      <c r="B28" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="28">
+      <c r="B28" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="26">
         <v>1</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="20">
-        <f t="shared" ref="F28:F30" si="8">G27+1</f>
-        <v>44485</v>
-      </c>
-      <c r="G28" s="20">
-        <f t="shared" si="6"/>
-        <v>44485</v>
+      <c r="E28" s="54">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19">
+        <f t="shared" si="10"/>
+        <v>44486</v>
+      </c>
+      <c r="G28" s="19">
+        <f t="shared" si="11"/>
+        <v>44486</v>
       </c>
       <c r="H28" s="49"/>
-      <c r="I28" s="49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="I28" s="49"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -5376,7 +5619,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
+      <c r="Z28" s="10"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
@@ -5418,29 +5661,21 @@
       <c r="BM28" s="9"/>
     </row>
     <row r="29" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
-      <c r="B29" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="28">
-        <v>1</v>
-      </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="20">
-        <f t="shared" si="8"/>
-        <v>44486</v>
-      </c>
-      <c r="G29" s="20">
-        <f t="shared" si="6"/>
-        <v>44486</v>
-      </c>
+      <c r="A29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="57"/>
       <c r="H29" s="49"/>
-      <c r="I29" s="49">
+      <c r="I29" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -5502,17 +5737,19 @@
     <row r="30" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="34" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D30" s="28">
         <v>1</v>
       </c>
-      <c r="E30" s="58"/>
+      <c r="E30" s="58">
+        <v>0.5</v>
+      </c>
       <c r="F30" s="20">
-        <f t="shared" si="8"/>
+        <f>G28+1</f>
         <v>44487</v>
       </c>
       <c r="G30" s="20">
@@ -5582,21 +5819,31 @@
       <c r="BM30" s="9"/>
     </row>
     <row r="31" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="61"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="28">
+        <v>1</v>
+      </c>
+      <c r="E31" s="58">
+        <v>0</v>
+      </c>
+      <c r="F31" s="20">
+        <f>G30+1</f>
+        <v>44488</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" si="6"/>
+        <v>44488</v>
+      </c>
       <c r="H31" s="49"/>
-      <c r="I31" s="49" t="str">
+      <c r="I31" s="49">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -5657,23 +5904,25 @@
     </row>
     <row r="32" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
-      <c r="B32" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="30">
+      <c r="B32" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="28">
         <v>1</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="21">
-        <f>G30+1</f>
-        <v>44488</v>
-      </c>
-      <c r="G32" s="21">
+      <c r="E32" s="58">
+        <v>0</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" ref="F32:F34" si="12">G31+1</f>
+        <v>44489</v>
+      </c>
+      <c r="G32" s="20">
         <f t="shared" si="6"/>
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="H32" s="49"/>
       <c r="I32" s="49">
@@ -5739,23 +5988,25 @@
     </row>
     <row r="33" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
-      <c r="B33" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="30">
+      <c r="B33" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="28">
         <v>1</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="21">
-        <f>G32+1</f>
-        <v>44489</v>
-      </c>
-      <c r="G33" s="21">
+      <c r="E33" s="58">
+        <v>0</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="12"/>
+        <v>44490</v>
+      </c>
+      <c r="G33" s="20">
         <f t="shared" si="6"/>
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="H33" s="49"/>
       <c r="I33" s="49">
@@ -5821,23 +6072,25 @@
     </row>
     <row r="34" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
-      <c r="B34" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="30">
+      <c r="B34" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="28">
         <v>1</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="21">
-        <f>G33+1</f>
-        <v>44490</v>
-      </c>
-      <c r="G34" s="21">
+      <c r="E34" s="58">
+        <v>0</v>
+      </c>
+      <c r="F34" s="20">
+        <f t="shared" si="12"/>
+        <v>44491</v>
+      </c>
+      <c r="G34" s="20">
         <f t="shared" si="6"/>
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="H34" s="49"/>
       <c r="I34" s="49">
@@ -5902,23 +6155,21 @@
       <c r="BM34" s="9"/>
     </row>
     <row r="35" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12"/>
-      <c r="B35" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="A35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="61"/>
       <c r="H35" s="49"/>
-      <c r="I35" s="49" t="e">
+      <c r="I35" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -5980,21 +6231,29 @@
     <row r="36" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>32</v>
+        <v>114</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="30">
+        <v>1</v>
+      </c>
+      <c r="E36" s="62">
+        <v>0</v>
+      </c>
+      <c r="F36" s="21">
+        <f>G34+1</f>
+        <v>44492</v>
+      </c>
+      <c r="G36" s="21">
+        <f t="shared" si="6"/>
+        <v>44492</v>
       </c>
       <c r="H36" s="49"/>
-      <c r="I36" s="49" t="e">
+      <c r="I36" s="49">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -6054,19 +6313,31 @@
       <c r="BM36" s="9"/>
     </row>
     <row r="37" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="30">
+        <v>1</v>
+      </c>
+      <c r="E37" s="62">
+        <v>0</v>
+      </c>
+      <c r="F37" s="21">
+        <f>G36+1</f>
+        <v>44493</v>
+      </c>
+      <c r="G37" s="21">
+        <f t="shared" si="6"/>
+        <v>44493</v>
+      </c>
       <c r="H37" s="49"/>
-      <c r="I37" s="49" t="str">
+      <c r="I37" s="49">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -6126,106 +6397,1687 @@
       <c r="BM37" s="9"/>
     </row>
     <row r="38" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67" t="str">
+      <c r="A38" s="12"/>
+      <c r="B38" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="30">
+        <v>1</v>
+      </c>
+      <c r="E38" s="62">
+        <v>0</v>
+      </c>
+      <c r="F38" s="21">
+        <f>G37+1</f>
+        <v>44494</v>
+      </c>
+      <c r="G38" s="21">
+        <f t="shared" si="6"/>
+        <v>44494</v>
+      </c>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="9"/>
+      <c r="AM38" s="9"/>
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="9"/>
+      <c r="AP38" s="9"/>
+      <c r="AQ38" s="9"/>
+      <c r="AR38" s="9"/>
+      <c r="AS38" s="9"/>
+      <c r="AT38" s="9"/>
+      <c r="AU38" s="9"/>
+      <c r="AV38" s="9"/>
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="9"/>
+      <c r="AY38" s="9"/>
+      <c r="AZ38" s="9"/>
+      <c r="BA38" s="9"/>
+      <c r="BB38" s="9"/>
+      <c r="BC38" s="9"/>
+      <c r="BD38" s="9"/>
+      <c r="BE38" s="9"/>
+      <c r="BF38" s="9"/>
+      <c r="BG38" s="9"/>
+      <c r="BH38" s="9"/>
+      <c r="BI38" s="9"/>
+      <c r="BJ38" s="9"/>
+      <c r="BK38" s="9"/>
+      <c r="BL38" s="9"/>
+      <c r="BM38" s="9"/>
+    </row>
+    <row r="39" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
-      <c r="AG38" s="11"/>
-      <c r="AH38" s="11"/>
-      <c r="AI38" s="11"/>
-      <c r="AJ38" s="11"/>
-      <c r="AK38" s="11"/>
-      <c r="AL38" s="11"/>
-      <c r="AM38" s="11"/>
-      <c r="AN38" s="11"/>
-      <c r="AO38" s="11"/>
-      <c r="AP38" s="11"/>
-      <c r="AQ38" s="11"/>
-      <c r="AR38" s="11"/>
-      <c r="AS38" s="11"/>
-      <c r="AT38" s="11"/>
-      <c r="AU38" s="11"/>
-      <c r="AV38" s="11"/>
-      <c r="AW38" s="11"/>
-      <c r="AX38" s="11"/>
-      <c r="AY38" s="11"/>
-      <c r="AZ38" s="11"/>
-      <c r="BA38" s="11"/>
-      <c r="BB38" s="11"/>
-      <c r="BC38" s="11"/>
-      <c r="BD38" s="11"/>
-      <c r="BE38" s="11"/>
-      <c r="BF38" s="11"/>
-      <c r="BG38" s="11"/>
-      <c r="BH38" s="11"/>
-      <c r="BI38" s="11"/>
-      <c r="BJ38" s="11"/>
-      <c r="BK38" s="11"/>
-      <c r="BL38" s="11"/>
-      <c r="BM38" s="11"/>
-    </row>
-    <row r="39" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="G40" s="68"/>
-    </row>
-    <row r="41" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="9"/>
+      <c r="AM39" s="9"/>
+      <c r="AN39" s="9"/>
+      <c r="AO39" s="9"/>
+      <c r="AP39" s="9"/>
+      <c r="AQ39" s="9"/>
+      <c r="AR39" s="9"/>
+      <c r="AS39" s="9"/>
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="9"/>
+      <c r="AV39" s="9"/>
+      <c r="AW39" s="9"/>
+      <c r="AX39" s="9"/>
+      <c r="AY39" s="9"/>
+      <c r="AZ39" s="9"/>
+      <c r="BA39" s="9"/>
+      <c r="BB39" s="9"/>
+      <c r="BC39" s="9"/>
+      <c r="BD39" s="9"/>
+      <c r="BE39" s="9"/>
+      <c r="BF39" s="9"/>
+      <c r="BG39" s="9"/>
+      <c r="BH39" s="9"/>
+      <c r="BI39" s="9"/>
+      <c r="BJ39" s="9"/>
+      <c r="BK39" s="9"/>
+      <c r="BL39" s="9"/>
+      <c r="BM39" s="9"/>
+    </row>
+    <row r="40" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12"/>
+      <c r="B40" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="24">
+        <v>1</v>
+      </c>
+      <c r="E40" s="50">
+        <v>0</v>
+      </c>
+      <c r="F40" s="18">
+        <f>G38+1</f>
+        <v>44495</v>
+      </c>
+      <c r="G40" s="18">
+        <f>F40+(D40-1)</f>
+        <v>44495</v>
+      </c>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="9"/>
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="9"/>
+      <c r="AM40" s="9"/>
+      <c r="AN40" s="9"/>
+      <c r="AO40" s="9"/>
+      <c r="AP40" s="9"/>
+      <c r="AQ40" s="9"/>
+      <c r="AR40" s="9"/>
+      <c r="AS40" s="9"/>
+      <c r="AT40" s="9"/>
+      <c r="AU40" s="9"/>
+      <c r="AV40" s="9"/>
+      <c r="AW40" s="9"/>
+      <c r="AX40" s="9"/>
+      <c r="AY40" s="9"/>
+      <c r="AZ40" s="9"/>
+      <c r="BA40" s="9"/>
+      <c r="BB40" s="9"/>
+      <c r="BC40" s="9"/>
+      <c r="BD40" s="9"/>
+      <c r="BE40" s="9"/>
+      <c r="BF40" s="9"/>
+      <c r="BG40" s="9"/>
+      <c r="BH40" s="9"/>
+      <c r="BI40" s="9"/>
+      <c r="BJ40" s="9"/>
+      <c r="BK40" s="9"/>
+      <c r="BL40" s="9"/>
+      <c r="BM40" s="9"/>
+    </row>
+    <row r="41" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="24">
+        <v>1</v>
+      </c>
+      <c r="E41" s="50">
+        <v>0</v>
+      </c>
+      <c r="F41" s="18">
+        <f>G40+1</f>
+        <v>44496</v>
+      </c>
+      <c r="G41" s="18">
+        <f>F41+(D41-1)</f>
+        <v>44496</v>
+      </c>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="9"/>
+      <c r="AH41" s="9"/>
+      <c r="AI41" s="9"/>
+      <c r="AJ41" s="9"/>
+      <c r="AK41" s="9"/>
+      <c r="AL41" s="9"/>
+      <c r="AM41" s="9"/>
+      <c r="AN41" s="9"/>
+      <c r="AO41" s="9"/>
+      <c r="AP41" s="9"/>
+      <c r="AQ41" s="9"/>
+      <c r="AR41" s="9"/>
+      <c r="AS41" s="9"/>
+      <c r="AT41" s="9"/>
+      <c r="AU41" s="9"/>
+      <c r="AV41" s="9"/>
+      <c r="AW41" s="9"/>
+      <c r="AX41" s="9"/>
+      <c r="AY41" s="9"/>
+      <c r="AZ41" s="9"/>
+      <c r="BA41" s="9"/>
+      <c r="BB41" s="9"/>
+      <c r="BC41" s="9"/>
+      <c r="BD41" s="9"/>
+      <c r="BE41" s="9"/>
+      <c r="BF41" s="9"/>
+      <c r="BG41" s="9"/>
+      <c r="BH41" s="9"/>
+      <c r="BI41" s="9"/>
+      <c r="BJ41" s="9"/>
+      <c r="BK41" s="9"/>
+      <c r="BL41" s="9"/>
+      <c r="BM41" s="9"/>
+    </row>
+    <row r="42" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="12"/>
+      <c r="B42" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="24">
+        <v>1</v>
+      </c>
+      <c r="E42" s="50">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18">
+        <f t="shared" ref="F42:F44" si="13">G41+1</f>
+        <v>44497</v>
+      </c>
+      <c r="G42" s="18">
+        <f t="shared" ref="G42:G44" si="14">F42+(D42-1)</f>
+        <v>44497</v>
+      </c>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="9"/>
+      <c r="AJ42" s="9"/>
+      <c r="AK42" s="9"/>
+      <c r="AL42" s="9"/>
+      <c r="AM42" s="9"/>
+      <c r="AN42" s="9"/>
+      <c r="AO42" s="9"/>
+      <c r="AP42" s="9"/>
+      <c r="AQ42" s="9"/>
+      <c r="AR42" s="9"/>
+      <c r="AS42" s="9"/>
+      <c r="AT42" s="9"/>
+      <c r="AU42" s="9"/>
+      <c r="AV42" s="9"/>
+      <c r="AW42" s="9"/>
+      <c r="AX42" s="9"/>
+      <c r="AY42" s="9"/>
+      <c r="AZ42" s="9"/>
+      <c r="BA42" s="9"/>
+      <c r="BB42" s="9"/>
+      <c r="BC42" s="9"/>
+      <c r="BD42" s="9"/>
+      <c r="BE42" s="9"/>
+      <c r="BF42" s="9"/>
+      <c r="BG42" s="9"/>
+      <c r="BH42" s="9"/>
+      <c r="BI42" s="9"/>
+      <c r="BJ42" s="9"/>
+      <c r="BK42" s="9"/>
+      <c r="BL42" s="9"/>
+      <c r="BM42" s="9"/>
+    </row>
+    <row r="43" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="12"/>
+      <c r="B43" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="24">
+        <v>1</v>
+      </c>
+      <c r="E43" s="50">
+        <v>0</v>
+      </c>
+      <c r="F43" s="18">
+        <f t="shared" si="13"/>
+        <v>44498</v>
+      </c>
+      <c r="G43" s="18">
+        <f t="shared" si="14"/>
+        <v>44498</v>
+      </c>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="9"/>
+      <c r="AH43" s="9"/>
+      <c r="AI43" s="9"/>
+      <c r="AJ43" s="9"/>
+      <c r="AK43" s="9"/>
+      <c r="AL43" s="9"/>
+      <c r="AM43" s="9"/>
+      <c r="AN43" s="9"/>
+      <c r="AO43" s="9"/>
+      <c r="AP43" s="9"/>
+      <c r="AQ43" s="9"/>
+      <c r="AR43" s="9"/>
+      <c r="AS43" s="9"/>
+      <c r="AT43" s="9"/>
+      <c r="AU43" s="9"/>
+      <c r="AV43" s="9"/>
+      <c r="AW43" s="9"/>
+      <c r="AX43" s="9"/>
+      <c r="AY43" s="9"/>
+      <c r="AZ43" s="9"/>
+      <c r="BA43" s="9"/>
+      <c r="BB43" s="9"/>
+      <c r="BC43" s="9"/>
+      <c r="BD43" s="9"/>
+      <c r="BE43" s="9"/>
+      <c r="BF43" s="9"/>
+      <c r="BG43" s="9"/>
+      <c r="BH43" s="9"/>
+      <c r="BI43" s="9"/>
+      <c r="BJ43" s="9"/>
+      <c r="BK43" s="9"/>
+      <c r="BL43" s="9"/>
+      <c r="BM43" s="9"/>
+    </row>
+    <row r="44" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12"/>
+      <c r="B44" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="24">
+        <v>1</v>
+      </c>
+      <c r="E44" s="50">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18">
+        <f t="shared" si="13"/>
+        <v>44499</v>
+      </c>
+      <c r="G44" s="18">
+        <f t="shared" si="14"/>
+        <v>44499</v>
+      </c>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
+      <c r="AG44" s="9"/>
+      <c r="AH44" s="9"/>
+      <c r="AI44" s="9"/>
+      <c r="AJ44" s="9"/>
+      <c r="AK44" s="9"/>
+      <c r="AL44" s="9"/>
+      <c r="AM44" s="9"/>
+      <c r="AN44" s="9"/>
+      <c r="AO44" s="9"/>
+      <c r="AP44" s="9"/>
+      <c r="AQ44" s="9"/>
+      <c r="AR44" s="9"/>
+      <c r="AS44" s="9"/>
+      <c r="AT44" s="9"/>
+      <c r="AU44" s="9"/>
+      <c r="AV44" s="9"/>
+      <c r="AW44" s="9"/>
+      <c r="AX44" s="9"/>
+      <c r="AY44" s="9"/>
+      <c r="AZ44" s="9"/>
+      <c r="BA44" s="9"/>
+      <c r="BB44" s="9"/>
+      <c r="BC44" s="9"/>
+      <c r="BD44" s="9"/>
+      <c r="BE44" s="9"/>
+      <c r="BF44" s="9"/>
+      <c r="BG44" s="9"/>
+      <c r="BH44" s="9"/>
+      <c r="BI44" s="9"/>
+      <c r="BJ44" s="9"/>
+      <c r="BK44" s="9"/>
+      <c r="BL44" s="9"/>
+      <c r="BM44" s="9"/>
+    </row>
+    <row r="45" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="9"/>
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="9"/>
+      <c r="AJ45" s="9"/>
+      <c r="AK45" s="9"/>
+      <c r="AL45" s="9"/>
+      <c r="AM45" s="9"/>
+      <c r="AN45" s="9"/>
+      <c r="AO45" s="9"/>
+      <c r="AP45" s="9"/>
+      <c r="AQ45" s="9"/>
+      <c r="AR45" s="9"/>
+      <c r="AS45" s="9"/>
+      <c r="AT45" s="9"/>
+      <c r="AU45" s="9"/>
+      <c r="AV45" s="9"/>
+      <c r="AW45" s="9"/>
+      <c r="AX45" s="9"/>
+      <c r="AY45" s="9"/>
+      <c r="AZ45" s="9"/>
+      <c r="BA45" s="9"/>
+      <c r="BB45" s="9"/>
+      <c r="BC45" s="9"/>
+      <c r="BD45" s="9"/>
+      <c r="BE45" s="9"/>
+      <c r="BF45" s="9"/>
+      <c r="BG45" s="9"/>
+      <c r="BH45" s="9"/>
+      <c r="BI45" s="9"/>
+      <c r="BJ45" s="9"/>
+      <c r="BK45" s="9"/>
+      <c r="BL45" s="9"/>
+      <c r="BM45" s="9"/>
+    </row>
+    <row r="46" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12"/>
+      <c r="B46" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="30">
+        <v>1</v>
+      </c>
+      <c r="E46" s="62">
+        <v>0</v>
+      </c>
+      <c r="F46" s="21">
+        <f>G44+1</f>
+        <v>44500</v>
+      </c>
+      <c r="G46" s="21">
+        <f t="shared" ref="G46:G48" si="15">F46+(D46-1)</f>
+        <v>44500</v>
+      </c>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="9"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="9"/>
+      <c r="AJ46" s="9"/>
+      <c r="AK46" s="9"/>
+      <c r="AL46" s="9"/>
+      <c r="AM46" s="9"/>
+      <c r="AN46" s="9"/>
+      <c r="AO46" s="9"/>
+      <c r="AP46" s="9"/>
+      <c r="AQ46" s="9"/>
+      <c r="AR46" s="9"/>
+      <c r="AS46" s="9"/>
+      <c r="AT46" s="9"/>
+      <c r="AU46" s="9"/>
+      <c r="AV46" s="9"/>
+      <c r="AW46" s="9"/>
+      <c r="AX46" s="9"/>
+      <c r="AY46" s="9"/>
+      <c r="AZ46" s="9"/>
+      <c r="BA46" s="9"/>
+      <c r="BB46" s="9"/>
+      <c r="BC46" s="9"/>
+      <c r="BD46" s="9"/>
+      <c r="BE46" s="9"/>
+      <c r="BF46" s="9"/>
+      <c r="BG46" s="9"/>
+      <c r="BH46" s="9"/>
+      <c r="BI46" s="9"/>
+      <c r="BJ46" s="9"/>
+      <c r="BK46" s="9"/>
+      <c r="BL46" s="9"/>
+      <c r="BM46" s="9"/>
+    </row>
+    <row r="47" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12"/>
+      <c r="B47" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="30">
+        <v>1</v>
+      </c>
+      <c r="E47" s="62">
+        <v>0</v>
+      </c>
+      <c r="F47" s="21">
+        <f t="shared" ref="F47:F48" si="16">G46+1</f>
+        <v>44501</v>
+      </c>
+      <c r="G47" s="21">
+        <f t="shared" si="15"/>
+        <v>44501</v>
+      </c>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="9"/>
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="9"/>
+      <c r="AM47" s="9"/>
+      <c r="AN47" s="9"/>
+      <c r="AO47" s="9"/>
+      <c r="AP47" s="9"/>
+      <c r="AQ47" s="9"/>
+      <c r="AR47" s="9"/>
+      <c r="AS47" s="9"/>
+      <c r="AT47" s="9"/>
+      <c r="AU47" s="9"/>
+      <c r="AV47" s="9"/>
+      <c r="AW47" s="9"/>
+      <c r="AX47" s="9"/>
+      <c r="AY47" s="9"/>
+      <c r="AZ47" s="9"/>
+      <c r="BA47" s="9"/>
+      <c r="BB47" s="9"/>
+      <c r="BC47" s="9"/>
+      <c r="BD47" s="9"/>
+      <c r="BE47" s="9"/>
+      <c r="BF47" s="9"/>
+      <c r="BG47" s="9"/>
+      <c r="BH47" s="9"/>
+      <c r="BI47" s="9"/>
+      <c r="BJ47" s="9"/>
+      <c r="BK47" s="9"/>
+      <c r="BL47" s="9"/>
+      <c r="BM47" s="9"/>
+    </row>
+    <row r="48" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="30">
+        <v>1</v>
+      </c>
+      <c r="E48" s="62">
+        <v>0</v>
+      </c>
+      <c r="F48" s="21">
+        <f t="shared" si="16"/>
+        <v>44502</v>
+      </c>
+      <c r="G48" s="21">
+        <f t="shared" si="15"/>
+        <v>44502</v>
+      </c>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
+      <c r="AJ48" s="9"/>
+      <c r="AK48" s="9"/>
+      <c r="AL48" s="9"/>
+      <c r="AM48" s="9"/>
+      <c r="AN48" s="9"/>
+      <c r="AO48" s="9"/>
+      <c r="AP48" s="9"/>
+      <c r="AQ48" s="9"/>
+      <c r="AR48" s="9"/>
+      <c r="AS48" s="9"/>
+      <c r="AT48" s="9"/>
+      <c r="AU48" s="9"/>
+      <c r="AV48" s="9"/>
+      <c r="AW48" s="9"/>
+      <c r="AX48" s="9"/>
+      <c r="AY48" s="9"/>
+      <c r="AZ48" s="9"/>
+      <c r="BA48" s="9"/>
+      <c r="BB48" s="9"/>
+      <c r="BC48" s="9"/>
+      <c r="BD48" s="9"/>
+      <c r="BE48" s="9"/>
+      <c r="BF48" s="9"/>
+      <c r="BG48" s="9"/>
+      <c r="BH48" s="9"/>
+      <c r="BI48" s="9"/>
+      <c r="BJ48" s="9"/>
+      <c r="BK48" s="9"/>
+      <c r="BL48" s="9"/>
+      <c r="BM48" s="9"/>
+    </row>
+    <row r="49" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9"/>
+      <c r="AJ49" s="9"/>
+      <c r="AK49" s="9"/>
+      <c r="AL49" s="9"/>
+      <c r="AM49" s="9"/>
+      <c r="AN49" s="9"/>
+      <c r="AO49" s="9"/>
+      <c r="AP49" s="9"/>
+      <c r="AQ49" s="9"/>
+      <c r="AR49" s="9"/>
+      <c r="AS49" s="9"/>
+      <c r="AT49" s="9"/>
+      <c r="AU49" s="9"/>
+      <c r="AV49" s="9"/>
+      <c r="AW49" s="9"/>
+      <c r="AX49" s="9"/>
+      <c r="AY49" s="9"/>
+      <c r="AZ49" s="9"/>
+      <c r="BA49" s="9"/>
+      <c r="BB49" s="9"/>
+      <c r="BC49" s="9"/>
+      <c r="BD49" s="9"/>
+      <c r="BE49" s="9"/>
+      <c r="BF49" s="9"/>
+      <c r="BG49" s="9"/>
+      <c r="BH49" s="9"/>
+      <c r="BI49" s="9"/>
+      <c r="BJ49" s="9"/>
+      <c r="BK49" s="9"/>
+      <c r="BL49" s="9"/>
+      <c r="BM49" s="9"/>
+    </row>
+    <row r="50" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="13"/>
+      <c r="B50" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="24">
+        <v>1</v>
+      </c>
+      <c r="E50" s="50">
+        <v>0</v>
+      </c>
+      <c r="F50" s="18">
+        <f>G48+1</f>
+        <v>44503</v>
+      </c>
+      <c r="G50" s="18">
+        <f>F50+(D50-1)</f>
+        <v>44503</v>
+      </c>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="9"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="9"/>
+      <c r="AH50" s="9"/>
+      <c r="AI50" s="9"/>
+      <c r="AJ50" s="9"/>
+      <c r="AK50" s="9"/>
+      <c r="AL50" s="9"/>
+      <c r="AM50" s="9"/>
+      <c r="AN50" s="9"/>
+      <c r="AO50" s="9"/>
+      <c r="AP50" s="9"/>
+      <c r="AQ50" s="9"/>
+      <c r="AR50" s="9"/>
+      <c r="AS50" s="9"/>
+      <c r="AT50" s="9"/>
+      <c r="AU50" s="9"/>
+      <c r="AV50" s="9"/>
+      <c r="AW50" s="9"/>
+      <c r="AX50" s="9"/>
+      <c r="AY50" s="9"/>
+      <c r="AZ50" s="9"/>
+      <c r="BA50" s="9"/>
+      <c r="BB50" s="9"/>
+      <c r="BC50" s="9"/>
+      <c r="BD50" s="9"/>
+      <c r="BE50" s="9"/>
+      <c r="BF50" s="9"/>
+      <c r="BG50" s="9"/>
+      <c r="BH50" s="9"/>
+      <c r="BI50" s="9"/>
+      <c r="BJ50" s="9"/>
+      <c r="BK50" s="9"/>
+      <c r="BL50" s="9"/>
+      <c r="BM50" s="9"/>
+    </row>
+    <row r="51" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="13"/>
+      <c r="B51" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="24">
+        <v>1</v>
+      </c>
+      <c r="E51" s="50">
+        <v>0</v>
+      </c>
+      <c r="F51" s="18">
+        <f t="shared" ref="F51:F52" si="17">G50+1</f>
+        <v>44504</v>
+      </c>
+      <c r="G51" s="18">
+        <f t="shared" ref="G51:G52" si="18">F51+(D51-1)</f>
+        <v>44504</v>
+      </c>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9"/>
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="9"/>
+      <c r="AJ51" s="9"/>
+      <c r="AK51" s="9"/>
+      <c r="AL51" s="9"/>
+      <c r="AM51" s="9"/>
+      <c r="AN51" s="9"/>
+      <c r="AO51" s="9"/>
+      <c r="AP51" s="9"/>
+      <c r="AQ51" s="9"/>
+      <c r="AR51" s="9"/>
+      <c r="AS51" s="9"/>
+      <c r="AT51" s="9"/>
+      <c r="AU51" s="9"/>
+      <c r="AV51" s="9"/>
+      <c r="AW51" s="9"/>
+      <c r="AX51" s="9"/>
+      <c r="AY51" s="9"/>
+      <c r="AZ51" s="9"/>
+      <c r="BA51" s="9"/>
+      <c r="BB51" s="9"/>
+      <c r="BC51" s="9"/>
+      <c r="BD51" s="9"/>
+      <c r="BE51" s="9"/>
+      <c r="BF51" s="9"/>
+      <c r="BG51" s="9"/>
+      <c r="BH51" s="9"/>
+      <c r="BI51" s="9"/>
+      <c r="BJ51" s="9"/>
+      <c r="BK51" s="9"/>
+      <c r="BL51" s="9"/>
+      <c r="BM51" s="9"/>
+    </row>
+    <row r="52" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="13"/>
+      <c r="B52" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="24">
+        <v>1</v>
+      </c>
+      <c r="E52" s="50">
+        <v>0</v>
+      </c>
+      <c r="F52" s="18">
+        <f t="shared" si="17"/>
+        <v>44505</v>
+      </c>
+      <c r="G52" s="18">
+        <f t="shared" si="18"/>
+        <v>44505</v>
+      </c>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="9"/>
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="9"/>
+      <c r="AJ52" s="9"/>
+      <c r="AK52" s="9"/>
+      <c r="AL52" s="9"/>
+      <c r="AM52" s="9"/>
+      <c r="AN52" s="9"/>
+      <c r="AO52" s="9"/>
+      <c r="AP52" s="9"/>
+      <c r="AQ52" s="9"/>
+      <c r="AR52" s="9"/>
+      <c r="AS52" s="9"/>
+      <c r="AT52" s="9"/>
+      <c r="AU52" s="9"/>
+      <c r="AV52" s="9"/>
+      <c r="AW52" s="9"/>
+      <c r="AX52" s="9"/>
+      <c r="AY52" s="9"/>
+      <c r="AZ52" s="9"/>
+      <c r="BA52" s="9"/>
+      <c r="BB52" s="9"/>
+      <c r="BC52" s="9"/>
+      <c r="BD52" s="9"/>
+      <c r="BE52" s="9"/>
+      <c r="BF52" s="9"/>
+      <c r="BG52" s="9"/>
+      <c r="BH52" s="9"/>
+      <c r="BI52" s="9"/>
+      <c r="BJ52" s="9"/>
+      <c r="BK52" s="9"/>
+      <c r="BL52" s="9"/>
+      <c r="BM52" s="9"/>
+    </row>
+    <row r="53" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="13"/>
+      <c r="B53" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="24">
+        <v>1</v>
+      </c>
+      <c r="E53" s="50">
+        <v>0</v>
+      </c>
+      <c r="F53" s="18">
+        <f t="shared" ref="F53:F54" si="19">G52+1</f>
+        <v>44506</v>
+      </c>
+      <c r="G53" s="18">
+        <f t="shared" ref="G53:G54" si="20">F53+(D53-1)</f>
+        <v>44506</v>
+      </c>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9"/>
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="9"/>
+      <c r="AJ53" s="9"/>
+      <c r="AK53" s="9"/>
+      <c r="AL53" s="9"/>
+      <c r="AM53" s="9"/>
+      <c r="AN53" s="9"/>
+      <c r="AO53" s="9"/>
+      <c r="AP53" s="9"/>
+      <c r="AQ53" s="9"/>
+      <c r="AR53" s="9"/>
+      <c r="AS53" s="9"/>
+      <c r="AT53" s="9"/>
+      <c r="AU53" s="9"/>
+      <c r="AV53" s="9"/>
+      <c r="AW53" s="9"/>
+      <c r="AX53" s="9"/>
+      <c r="AY53" s="9"/>
+      <c r="AZ53" s="9"/>
+      <c r="BA53" s="9"/>
+      <c r="BB53" s="9"/>
+      <c r="BC53" s="9"/>
+      <c r="BD53" s="9"/>
+      <c r="BE53" s="9"/>
+      <c r="BF53" s="9"/>
+      <c r="BG53" s="9"/>
+      <c r="BH53" s="9"/>
+      <c r="BI53" s="9"/>
+      <c r="BJ53" s="9"/>
+      <c r="BK53" s="9"/>
+      <c r="BL53" s="9"/>
+      <c r="BM53" s="9"/>
+    </row>
+    <row r="54" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="13"/>
+      <c r="B54" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="24">
+        <v>1</v>
+      </c>
+      <c r="E54" s="50">
+        <v>0</v>
+      </c>
+      <c r="F54" s="18">
+        <f t="shared" si="19"/>
+        <v>44507</v>
+      </c>
+      <c r="G54" s="18">
+        <f t="shared" si="20"/>
+        <v>44507</v>
+      </c>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
+      <c r="AG54" s="9"/>
+      <c r="AH54" s="9"/>
+      <c r="AI54" s="9"/>
+      <c r="AJ54" s="9"/>
+      <c r="AK54" s="9"/>
+      <c r="AL54" s="9"/>
+      <c r="AM54" s="9"/>
+      <c r="AN54" s="9"/>
+      <c r="AO54" s="9"/>
+      <c r="AP54" s="9"/>
+      <c r="AQ54" s="9"/>
+      <c r="AR54" s="9"/>
+      <c r="AS54" s="9"/>
+      <c r="AT54" s="9"/>
+      <c r="AU54" s="9"/>
+      <c r="AV54" s="9"/>
+      <c r="AW54" s="9"/>
+      <c r="AX54" s="9"/>
+      <c r="AY54" s="9"/>
+      <c r="AZ54" s="9"/>
+      <c r="BA54" s="9"/>
+      <c r="BB54" s="9"/>
+      <c r="BC54" s="9"/>
+      <c r="BD54" s="9"/>
+      <c r="BE54" s="9"/>
+      <c r="BF54" s="9"/>
+      <c r="BG54" s="9"/>
+      <c r="BH54" s="9"/>
+      <c r="BI54" s="9"/>
+      <c r="BJ54" s="9"/>
+      <c r="BK54" s="9"/>
+      <c r="BL54" s="9"/>
+      <c r="BM54" s="9"/>
+    </row>
+    <row r="55" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="9"/>
+      <c r="AG55" s="9"/>
+      <c r="AH55" s="9"/>
+      <c r="AI55" s="9"/>
+      <c r="AJ55" s="9"/>
+      <c r="AK55" s="9"/>
+      <c r="AL55" s="9"/>
+      <c r="AM55" s="9"/>
+      <c r="AN55" s="9"/>
+      <c r="AO55" s="9"/>
+      <c r="AP55" s="9"/>
+      <c r="AQ55" s="9"/>
+      <c r="AR55" s="9"/>
+      <c r="AS55" s="9"/>
+      <c r="AT55" s="9"/>
+      <c r="AU55" s="9"/>
+      <c r="AV55" s="9"/>
+      <c r="AW55" s="9"/>
+      <c r="AX55" s="9"/>
+      <c r="AY55" s="9"/>
+      <c r="AZ55" s="9"/>
+      <c r="BA55" s="9"/>
+      <c r="BB55" s="9"/>
+      <c r="BC55" s="9"/>
+      <c r="BD55" s="9"/>
+      <c r="BE55" s="9"/>
+      <c r="BF55" s="9"/>
+      <c r="BG55" s="9"/>
+      <c r="BH55" s="9"/>
+      <c r="BI55" s="9"/>
+      <c r="BJ55" s="9"/>
+      <c r="BK55" s="9"/>
+      <c r="BL55" s="9"/>
+      <c r="BM55" s="9"/>
+    </row>
+    <row r="56" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="12"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="9"/>
+      <c r="AJ56" s="9"/>
+      <c r="AK56" s="9"/>
+      <c r="AL56" s="9"/>
+      <c r="AM56" s="9"/>
+      <c r="AN56" s="9"/>
+      <c r="AO56" s="9"/>
+      <c r="AP56" s="9"/>
+      <c r="AQ56" s="9"/>
+      <c r="AR56" s="9"/>
+      <c r="AS56" s="9"/>
+      <c r="AT56" s="9"/>
+      <c r="AU56" s="9"/>
+      <c r="AV56" s="9"/>
+      <c r="AW56" s="9"/>
+      <c r="AX56" s="9"/>
+      <c r="AY56" s="9"/>
+      <c r="AZ56" s="9"/>
+      <c r="BA56" s="9"/>
+      <c r="BB56" s="9"/>
+      <c r="BC56" s="9"/>
+      <c r="BD56" s="9"/>
+      <c r="BE56" s="9"/>
+      <c r="BF56" s="9"/>
+      <c r="BG56" s="9"/>
+      <c r="BH56" s="9"/>
+      <c r="BI56" s="9"/>
+      <c r="BJ56" s="9"/>
+      <c r="BK56" s="9"/>
+      <c r="BL56" s="9"/>
+      <c r="BM56" s="9"/>
+    </row>
+    <row r="57" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="12"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="9"/>
+      <c r="AG57" s="9"/>
+      <c r="AH57" s="9"/>
+      <c r="AI57" s="9"/>
+      <c r="AJ57" s="9"/>
+      <c r="AK57" s="9"/>
+      <c r="AL57" s="9"/>
+      <c r="AM57" s="9"/>
+      <c r="AN57" s="9"/>
+      <c r="AO57" s="9"/>
+      <c r="AP57" s="9"/>
+      <c r="AQ57" s="9"/>
+      <c r="AR57" s="9"/>
+      <c r="AS57" s="9"/>
+      <c r="AT57" s="9"/>
+      <c r="AU57" s="9"/>
+      <c r="AV57" s="9"/>
+      <c r="AW57" s="9"/>
+      <c r="AX57" s="9"/>
+      <c r="AY57" s="9"/>
+      <c r="AZ57" s="9"/>
+      <c r="BA57" s="9"/>
+      <c r="BB57" s="9"/>
+      <c r="BC57" s="9"/>
+      <c r="BD57" s="9"/>
+      <c r="BE57" s="9"/>
+      <c r="BF57" s="9"/>
+      <c r="BG57" s="9"/>
+      <c r="BH57" s="9"/>
+      <c r="BI57" s="9"/>
+      <c r="BJ57" s="9"/>
+      <c r="BK57" s="9"/>
+      <c r="BL57" s="9"/>
+      <c r="BM57" s="9"/>
+    </row>
+    <row r="58" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
+      <c r="AF58" s="11"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11"/>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="11"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="11"/>
+      <c r="AR58" s="11"/>
+      <c r="AS58" s="11"/>
+      <c r="AT58" s="11"/>
+      <c r="AU58" s="11"/>
+      <c r="AV58" s="11"/>
+      <c r="AW58" s="11"/>
+      <c r="AX58" s="11"/>
+      <c r="AY58" s="11"/>
+      <c r="AZ58" s="11"/>
+      <c r="BA58" s="11"/>
+      <c r="BB58" s="11"/>
+      <c r="BC58" s="11"/>
+      <c r="BD58" s="11"/>
+      <c r="BE58" s="11"/>
+      <c r="BF58" s="11"/>
+      <c r="BG58" s="11"/>
+      <c r="BH58" s="11"/>
+      <c r="BI58" s="11"/>
+      <c r="BJ58" s="11"/>
+      <c r="BK58" s="11"/>
+      <c r="BL58" s="11"/>
+      <c r="BM58" s="11"/>
+    </row>
+    <row r="59" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="G60" s="68"/>
+    </row>
+    <row r="61" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AZ4:BF4"/>
+    <mergeCell ref="BG4:BM4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="X4:AD4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="AE4:AK4"/>
     <mergeCell ref="AL4:AR4"/>
     <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
-    <mergeCell ref="BG4:BM4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="X4:AD4"/>
   </mergeCells>
   <phoneticPr fontId="37"/>
-  <conditionalFormatting sqref="E7:E38">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="E7:E38 E40:E44 E58">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6238,17 +8090,181 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:BM38">
-    <cfRule type="expression" dxfId="16" priority="4">
+  <conditionalFormatting sqref="J40:BM44 J5:BM38 J46:BM48 J58:BM58">
+    <cfRule type="expression" dxfId="18" priority="25">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:BM38">
-    <cfRule type="expression" dxfId="15" priority="2">
+  <conditionalFormatting sqref="J40:BM44 J7:BM38 J46:BM48 J58:BM58">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="24" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E48">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E54DEDD5-7C16-4C58-9DCB-DCEED2EF2101}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E44">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FE8E18D5-EE5C-4BF5-961E-C65AEAF035C4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:BM44">
+    <cfRule type="expression" dxfId="15" priority="19">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:BM44">
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="18" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:E48">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5F489D86-73E6-4E45-8B86-D50524B852FB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45:BM48">
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45:BM48">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{819188CF-7981-4056-A3BB-BD907EC72523}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:BM54">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:BM54">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:E52">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FE970A50-4160-436A-8671-B60272A024C5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:E57">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A82B6245-7A7D-448E-A243-1FFEB335EC45}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:BM57">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:BM57">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E78DBA92-3074-44FB-B6FF-9B133C91B2E3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0C614430-7ACE-4940-B3D0-E1BDA451A6B4}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -6278,7 +8294,127 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E38</xm:sqref>
+          <xm:sqref>E7:E38 E40:E44 E58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E54DEDD5-7C16-4C58-9DCB-DCEED2EF2101}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E46:E48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FE8E18D5-EE5C-4BF5-961E-C65AEAF035C4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E39:E44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5F489D86-73E6-4E45-8B86-D50524B852FB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E45:E48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{819188CF-7981-4056-A3BB-BD907EC72523}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FE970A50-4160-436A-8671-B60272A024C5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E50:E52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A82B6245-7A7D-448E-A243-1FFEB335EC45}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E55:E57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E78DBA92-3074-44FB-B6FF-9B133C91B2E3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0C614430-7ACE-4940-B3D0-E1BDA451A6B4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E54</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6304,23 +8440,23 @@
   <sheetData>
     <row r="1" spans="1:31" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="86" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:31" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:31" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="103" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B3" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="104" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="104" t="s">
-        <v>59</v>
       </c>
       <c r="E3" s="105">
         <v>0.375</v>
@@ -6409,7 +8545,7 @@
         <v>44468</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C4" s="108">
         <v>0.75</v>
@@ -6450,7 +8586,7 @@
         <v>44469</v>
       </c>
       <c r="B5" s="113" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C5" s="109">
         <v>0.375</v>
@@ -6491,7 +8627,7 @@
         <v>44470</v>
       </c>
       <c r="B6" s="113" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C6" s="109">
         <v>0.77083333333333337</v>
@@ -6532,7 +8668,7 @@
         <v>44471</v>
       </c>
       <c r="B7" s="113" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C7" s="109">
         <v>0.83333333333333337</v>
@@ -7166,7 +9302,7 @@
   </sheetData>
   <phoneticPr fontId="37"/>
   <conditionalFormatting sqref="E4:AE24">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND($C4&lt;=E$3, E$3&lt;=$D4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7198,7 +9334,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B1" s="91" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C1" s="92"/>
       <c r="D1" s="92"/>
@@ -7211,14 +9347,14 @@
     </row>
     <row r="2" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="95" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="132">
         <v>44466</v>
       </c>
       <c r="D2" s="132"/>
       <c r="E2" s="95" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F2" s="96">
         <v>0.29166666666666669</v>
@@ -7229,28 +9365,28 @@
     </row>
     <row r="3" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="G3" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="H3" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="I3" s="98" t="s">
         <v>69</v>
-      </c>
-      <c r="F3" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="98" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7288,7 +9424,7 @@
       <c r="D6" s="100"/>
       <c r="E6" s="100"/>
       <c r="F6" s="118" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G6" s="100"/>
       <c r="H6" s="100"/>
@@ -7303,7 +9439,7 @@
       <c r="D7" s="100"/>
       <c r="E7" s="100"/>
       <c r="F7" s="118" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G7" s="100"/>
       <c r="H7" s="100"/>
@@ -7318,7 +9454,7 @@
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
       <c r="F8" s="118" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G8" s="100"/>
       <c r="H8" s="100"/>
@@ -7333,7 +9469,7 @@
       <c r="D9" s="100"/>
       <c r="E9" s="100"/>
       <c r="F9" s="118" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G9" s="100"/>
       <c r="H9" s="100"/>
@@ -7348,7 +9484,7 @@
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="119" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G10" s="100"/>
       <c r="H10" s="100"/>
@@ -7363,7 +9499,7 @@
       <c r="D11" s="100"/>
       <c r="E11" s="100"/>
       <c r="F11" s="119" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G11" s="100"/>
       <c r="H11" s="100"/>
@@ -7378,7 +9514,7 @@
       <c r="D12" s="100"/>
       <c r="E12" s="100"/>
       <c r="F12" s="119" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
@@ -7393,7 +9529,7 @@
       <c r="D13" s="100"/>
       <c r="E13" s="100"/>
       <c r="F13" s="119" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G13" s="100"/>
       <c r="H13" s="100"/>
@@ -7434,7 +9570,7 @@
       <c r="D16" s="100"/>
       <c r="E16" s="100"/>
       <c r="F16" s="100" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G16" s="100"/>
       <c r="H16" s="100"/>
@@ -7449,7 +9585,7 @@
       <c r="D17" s="100"/>
       <c r="E17" s="100"/>
       <c r="F17" s="100" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G17" s="100"/>
       <c r="H17" s="100"/>
@@ -7464,7 +9600,7 @@
       <c r="D18" s="100"/>
       <c r="E18" s="100"/>
       <c r="F18" s="100" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G18" s="100"/>
       <c r="H18" s="100"/>
@@ -7479,7 +9615,7 @@
       <c r="D19" s="100"/>
       <c r="E19" s="100"/>
       <c r="F19" s="100" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G19" s="100"/>
       <c r="H19" s="100"/>
@@ -7494,7 +9630,7 @@
       <c r="D20" s="100"/>
       <c r="E20" s="100"/>
       <c r="F20" s="100" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G20" s="100"/>
       <c r="H20" s="100"/>
@@ -7509,7 +9645,7 @@
       <c r="D21" s="100"/>
       <c r="E21" s="100"/>
       <c r="F21" s="100" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
@@ -7524,7 +9660,7 @@
       <c r="D22" s="100"/>
       <c r="E22" s="100"/>
       <c r="F22" s="100" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
@@ -7539,7 +9675,7 @@
       <c r="D23" s="100"/>
       <c r="E23" s="100"/>
       <c r="F23" s="100" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
@@ -7554,7 +9690,7 @@
       <c r="D24" s="100"/>
       <c r="E24" s="100"/>
       <c r="F24" s="100" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G24" s="100"/>
       <c r="H24" s="100"/>
@@ -7569,7 +9705,7 @@
       <c r="D25" s="100"/>
       <c r="E25" s="100"/>
       <c r="F25" s="100" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G25" s="100"/>
       <c r="H25" s="100"/>
@@ -7583,10 +9719,10 @@
       <c r="C26" s="100"/>
       <c r="D26" s="100"/>
       <c r="E26" s="100" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F26" s="100" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G26" s="100"/>
       <c r="H26" s="100"/>
@@ -7600,10 +9736,10 @@
       <c r="C27" s="100"/>
       <c r="D27" s="100"/>
       <c r="E27" s="100" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F27" s="100" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G27" s="100"/>
       <c r="H27" s="100"/>
@@ -7617,10 +9753,10 @@
       <c r="C28" s="100"/>
       <c r="D28" s="100"/>
       <c r="E28" s="100" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F28" s="100" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G28" s="100"/>
       <c r="H28" s="100"/>
@@ -7634,10 +9770,10 @@
       <c r="C29" s="100"/>
       <c r="D29" s="100"/>
       <c r="E29" s="100" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F29" s="100" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G29" s="100"/>
       <c r="H29" s="100"/>
@@ -7651,13 +9787,13 @@
       <c r="C30" s="100"/>
       <c r="D30" s="100"/>
       <c r="E30" s="100" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F30" s="100" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G30" s="100" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H30" s="100"/>
       <c r="I30" s="100"/>
@@ -7670,13 +9806,13 @@
       <c r="C31" s="100"/>
       <c r="D31" s="100"/>
       <c r="E31" s="100" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F31" s="100" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G31" s="100" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H31" s="100"/>
       <c r="I31" s="100"/>
@@ -7689,13 +9825,13 @@
       <c r="C32" s="100"/>
       <c r="D32" s="100"/>
       <c r="E32" s="100" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F32" s="100" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G32" s="100" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H32" s="100"/>
       <c r="I32" s="100"/>
@@ -7708,13 +9844,13 @@
       <c r="C33" s="100"/>
       <c r="D33" s="100"/>
       <c r="E33" s="100" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F33" s="100" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G33" s="100" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H33" s="100"/>
       <c r="I33" s="100"/>
@@ -7727,13 +9863,13 @@
       <c r="C34" s="100"/>
       <c r="D34" s="100"/>
       <c r="E34" s="100" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F34" s="100" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G34" s="100" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H34" s="100"/>
       <c r="I34" s="100"/>

--- a/docs/work_scheduler.xlsx
+++ b/docs/work_scheduler.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AC5F91-B286-4C3B-AA74-304431DE1B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A89A83-D3D8-48BF-8637-94482D7A15CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,12 +38,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="114">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -345,10 +352,6 @@
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>セッティングビュー：デザイン</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
     <t>チャート：コンフィグリポジトリ作成</t>
     <rPh sb="15" eb="17">
       <t>サクセイ</t>
@@ -358,32 +361,6 @@
   <si>
     <t>チャート：コンフィグデータモデル作成</t>
     <rPh sb="16" eb="18">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>ユーザ設定：UI設定データモデル作成</t>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>ユーザ設定：UI設定リポジトリ作成</t>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="37"/>
@@ -415,35 +392,6 @@
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>チャート</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>ダッシュボード</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>ユーザ設定</t>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>ホーム</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>描画高速化</t>
-    <rPh sb="0" eb="2">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>コウソクカ</t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
     <t>DBをSQLite→PostgreDBに移管</t>
     <rPh sb="20" eb="22">
       <t>イカン</t>
@@ -527,146 +475,102 @@
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>セッティングビュー：スクリプト(JS)</t>
+    <t>フロントエンド Web(JS-React)</t>
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>ログインビュー：デザイン</t>
+    <t>バックエンド Web(C#-ASPNetCore)</t>
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>ログインビュー：スクリプト(JS)</t>
+    <t>デプロイ Web(JS-React)</t>
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>チャートビュー：スクリプトTS化</t>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
+    <t>フロントエンド Native(C#-WPF)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>バックエンド Native(C#)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>チャートビュー</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ダッシュボードビュー</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ホームビュー</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>セッテングビュー</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ログインビュー</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>AWSデプロイ(JS)</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>開始予定</t>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>ダッシュボード：スクリプトTS化</t>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
+    <t>終了予定</t>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>ホームビュー：スクリプトTS化</t>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>セッティングビュー：スクリプトTS化</t>
-    <rPh sb="17" eb="18">
-      <t>カ</t>
+    <t>着手</t>
+    <rPh sb="0" eb="2">
+      <t>チャクシュ</t>
     </rPh>
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>ログインビュー：スクリプトTS化</t>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
+    <t>テーブルビュー：描画高速化</t>
+    <rPh sb="8" eb="10">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>コウソクカ</t>
     </rPh>
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>オーソライズデータモデル作成</t>
-    <rPh sb="12" eb="14">
+    <t>設計モデル作成</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>オーソライズデータリポジトリ作成</t>
+    <t>レイヤ化アーキテクチャDDD準拠</t>
     <rPh sb="14" eb="16">
-      <t>サクセイ</t>
+      <t>ジュンキョ</t>
     </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>ローカル環境デプロイ(JS)</t>
-    <rPh sb="4" eb="6">
-      <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>GitHubPageデプロイ(JS)</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>Herokuデプロイ(JS)</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>Herokuデプロイ(TS)</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>ローカル環境デプロイ(TS)</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>GitHubPageデプロイ(TS)</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>フロントエンド/バックエンド連携 Web</t>
-    <rPh sb="14" eb="16">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>フロントエンド Web(JS-React)</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>バックエンド Web(C#-ASPNetCore)</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>デプロイ Web(JS-React)</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>フロントエンド Web(TS-React)</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>デプロイ Web(TS-React)</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>フロントエンド Native(C#-WPF)</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>バックエンド Native(C#)</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>チャートビュー</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>ダッシュボードビュー</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>ホームビュー</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>セッテングビュー</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>ログインビュー</t>
     <phoneticPr fontId="37"/>
   </si>
 </sst>
@@ -1877,7 +1781,7 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="45" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2257,15 +2161,19 @@
     <xf numFmtId="182" fontId="45" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2329,7 +2237,7 @@
     <cellStyle name="名前" xfId="11" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="良い" xfId="18" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill>
@@ -2366,66 +2274,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2783,21 +2631,21 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDo_リスト" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="41"/>
-      <tableStyleElement type="headerRow" dxfId="40"/>
-      <tableStyleElement type="totalRow" dxfId="39"/>
-      <tableStyleElement type="firstColumn" dxfId="38"/>
-      <tableStyleElement type="lastColumn" dxfId="37"/>
-      <tableStyleElement type="firstRowStripe" dxfId="36"/>
-      <tableStyleElement type="secondRowStripe" dxfId="35"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="34"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="33"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="totalRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="lastColumn" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
     </tableStyle>
     <tableStyle name="スケジュール" pivot="0" count="4" xr9:uid="{FE5C26DC-6021-4BEB-853E-58C48F20C49F}">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="firstColumn" dxfId="30"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="29"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="firstColumn" dxfId="24"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="23"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2947,17 +2795,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56394D97-6440-4092-A3BA-97FF8EEE0B46}" name="スケジュール" displayName="スケジュール" ref="B3:I51" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56394D97-6440-4092-A3BA-97FF8EEE0B46}" name="スケジュール" displayName="スケジュール" ref="B3:I51" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B3:I51" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{22735272-9BBC-4423-8255-E4B481ADDF75}" name="時刻" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{B0FE321B-C664-4D0A-816C-79B7234A3276}" name="月" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{A7F49256-5CB0-418B-B339-8E5DF0863F43}" name="火" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{6D1E9B6A-66E9-4CF7-B775-E3C821FB11D7}" name="水" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{E7486B4F-138B-48BE-8A69-2E626874BF29}" name="木" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{21A57594-FF22-40A8-B61F-6FBFA0CF2303}" name="金" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{A8173C71-34E7-4BF1-9E38-5CA9F96BC2B7}" name="土" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{D4746B53-62D0-48F8-B228-8BE696A15DB7}" name="日" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{22735272-9BBC-4423-8255-E4B481ADDF75}" name="時刻" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{B0FE321B-C664-4D0A-816C-79B7234A3276}" name="月" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{A7F49256-5CB0-418B-B339-8E5DF0863F43}" name="火" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{6D1E9B6A-66E9-4CF7-B775-E3C821FB11D7}" name="水" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{E7486B4F-138B-48BE-8A69-2E626874BF29}" name="木" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{21A57594-FF22-40A8-B61F-6FBFA0CF2303}" name="金" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{A8173C71-34E7-4BF1-9E38-5CA9F96BC2B7}" name="土" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{D4746B53-62D0-48F8-B228-8BE696A15DB7}" name="日" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="スケジュール" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
   <extLst>
@@ -3234,27 +3082,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM61"/>
+  <dimension ref="A1:BO36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6328125" style="12" customWidth="1"/>
     <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="2.6328125" customWidth="1"/>
-    <col min="9" max="9" width="6.1796875" hidden="1" customWidth="1"/>
-    <col min="10" max="65" width="2.54296875" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="6.36328125" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" customWidth="1"/>
+    <col min="7" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="2.6328125" customWidth="1"/>
+    <col min="11" max="11" width="6.1796875" hidden="1" customWidth="1"/>
+    <col min="12" max="67" width="2.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3266,17 +3115,19 @@
       <c r="E1" s="38"/>
       <c r="F1" s="39"/>
       <c r="G1" s="40"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="41"/>
-    </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="41"/>
+    </row>
+    <row r="2" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="16"/>
-      <c r="J2" s="42"/>
-    </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="42"/>
+    </row>
+    <row r="3" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -3284,14 +3135,16 @@
       <c r="C3" s="124"/>
       <c r="D3" s="124"/>
       <c r="E3" s="125" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F3" s="121">
         <v>44468</v>
       </c>
       <c r="G3" s="120"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+    </row>
+    <row r="4" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -3304,88 +3157,90 @@
         <v>1</v>
       </c>
       <c r="G4" s="123"/>
-      <c r="J4" s="128">
-        <f>J5</f>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="L4" s="128">
+        <f>L5</f>
         <v>44466</v>
       </c>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
       <c r="M4" s="129"/>
       <c r="N4" s="129"/>
       <c r="O4" s="129"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="128">
-        <f>Q5</f>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="128">
+        <f>S5</f>
         <v>44473</v>
       </c>
-      <c r="R4" s="129"/>
-      <c r="S4" s="129"/>
       <c r="T4" s="129"/>
       <c r="U4" s="129"/>
       <c r="V4" s="129"/>
-      <c r="W4" s="130"/>
-      <c r="X4" s="128">
-        <f>X5</f>
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="128">
+        <f>Z5</f>
         <v>44480</v>
       </c>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
       <c r="AA4" s="129"/>
       <c r="AB4" s="129"/>
       <c r="AC4" s="129"/>
-      <c r="AD4" s="130"/>
-      <c r="AE4" s="128">
-        <f>AE5</f>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="128">
+        <f>AG5</f>
         <v>44487</v>
       </c>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="129"/>
       <c r="AH4" s="129"/>
       <c r="AI4" s="129"/>
       <c r="AJ4" s="129"/>
-      <c r="AK4" s="130"/>
-      <c r="AL4" s="128">
-        <f>AL5</f>
+      <c r="AK4" s="129"/>
+      <c r="AL4" s="129"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="128">
+        <f>AN5</f>
         <v>44494</v>
       </c>
-      <c r="AM4" s="129"/>
-      <c r="AN4" s="129"/>
       <c r="AO4" s="129"/>
       <c r="AP4" s="129"/>
       <c r="AQ4" s="129"/>
-      <c r="AR4" s="130"/>
-      <c r="AS4" s="128">
-        <f>AS5</f>
+      <c r="AR4" s="129"/>
+      <c r="AS4" s="129"/>
+      <c r="AT4" s="130"/>
+      <c r="AU4" s="128">
+        <f>AU5</f>
         <v>44501</v>
       </c>
-      <c r="AT4" s="129"/>
-      <c r="AU4" s="129"/>
       <c r="AV4" s="129"/>
       <c r="AW4" s="129"/>
       <c r="AX4" s="129"/>
-      <c r="AY4" s="130"/>
-      <c r="AZ4" s="128">
-        <f>AZ5</f>
+      <c r="AY4" s="129"/>
+      <c r="AZ4" s="129"/>
+      <c r="BA4" s="130"/>
+      <c r="BB4" s="128">
+        <f>BB5</f>
         <v>44508</v>
       </c>
-      <c r="BA4" s="129"/>
-      <c r="BB4" s="129"/>
       <c r="BC4" s="129"/>
       <c r="BD4" s="129"/>
       <c r="BE4" s="129"/>
-      <c r="BF4" s="130"/>
-      <c r="BG4" s="128">
-        <f>BG5</f>
+      <c r="BF4" s="129"/>
+      <c r="BG4" s="129"/>
+      <c r="BH4" s="130"/>
+      <c r="BI4" s="128">
+        <f>BI5</f>
         <v>44515</v>
       </c>
-      <c r="BH4" s="129"/>
-      <c r="BI4" s="129"/>
       <c r="BJ4" s="129"/>
       <c r="BK4" s="129"/>
       <c r="BL4" s="129"/>
-      <c r="BM4" s="130"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BM4" s="129"/>
+      <c r="BN4" s="129"/>
+      <c r="BO4" s="130"/>
+    </row>
+    <row r="5" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -3396,232 +3251,234 @@
       <c r="F5" s="131"/>
       <c r="G5" s="131"/>
       <c r="H5" s="131"/>
-      <c r="J5" s="81">
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="L5" s="81">
         <f>プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+2+7*(週_表示-1)</f>
         <v>44466</v>
       </c>
-      <c r="K5" s="82">
-        <f>J5+1</f>
+      <c r="M5" s="82">
+        <f>L5+1</f>
         <v>44467</v>
       </c>
-      <c r="L5" s="82">
-        <f t="shared" ref="L5:AY5" si="0">K5+1</f>
+      <c r="N5" s="82">
+        <f t="shared" ref="N5:BA5" si="0">M5+1</f>
         <v>44468</v>
       </c>
-      <c r="M5" s="82">
+      <c r="O5" s="82">
         <f t="shared" si="0"/>
         <v>44469</v>
       </c>
-      <c r="N5" s="82">
+      <c r="P5" s="82">
         <f t="shared" si="0"/>
         <v>44470</v>
       </c>
-      <c r="O5" s="82">
+      <c r="Q5" s="82">
         <f t="shared" si="0"/>
         <v>44471</v>
       </c>
-      <c r="P5" s="83">
+      <c r="R5" s="83">
         <f t="shared" si="0"/>
         <v>44472</v>
       </c>
-      <c r="Q5" s="81">
-        <f>P5+1</f>
+      <c r="S5" s="81">
+        <f>R5+1</f>
         <v>44473</v>
       </c>
-      <c r="R5" s="82">
-        <f>Q5+1</f>
+      <c r="T5" s="82">
+        <f>S5+1</f>
         <v>44474</v>
       </c>
-      <c r="S5" s="82">
+      <c r="U5" s="82">
         <f t="shared" si="0"/>
         <v>44475</v>
       </c>
-      <c r="T5" s="82">
+      <c r="V5" s="82">
         <f t="shared" si="0"/>
         <v>44476</v>
       </c>
-      <c r="U5" s="82">
+      <c r="W5" s="82">
         <f t="shared" si="0"/>
         <v>44477</v>
       </c>
-      <c r="V5" s="82">
+      <c r="X5" s="82">
         <f t="shared" si="0"/>
         <v>44478</v>
       </c>
-      <c r="W5" s="83">
+      <c r="Y5" s="83">
         <f t="shared" si="0"/>
         <v>44479</v>
       </c>
-      <c r="X5" s="81">
-        <f>W5+1</f>
+      <c r="Z5" s="81">
+        <f>Y5+1</f>
         <v>44480</v>
       </c>
-      <c r="Y5" s="82">
-        <f>X5+1</f>
+      <c r="AA5" s="82">
+        <f>Z5+1</f>
         <v>44481</v>
       </c>
-      <c r="Z5" s="82">
+      <c r="AB5" s="82">
         <f t="shared" si="0"/>
         <v>44482</v>
       </c>
-      <c r="AA5" s="82">
+      <c r="AC5" s="82">
         <f t="shared" si="0"/>
         <v>44483</v>
       </c>
-      <c r="AB5" s="82">
+      <c r="AD5" s="82">
         <f t="shared" si="0"/>
         <v>44484</v>
       </c>
-      <c r="AC5" s="82">
+      <c r="AE5" s="82">
         <f t="shared" si="0"/>
         <v>44485</v>
       </c>
-      <c r="AD5" s="83">
+      <c r="AF5" s="83">
         <f t="shared" si="0"/>
         <v>44486</v>
       </c>
-      <c r="AE5" s="81">
-        <f>AD5+1</f>
+      <c r="AG5" s="81">
+        <f>AF5+1</f>
         <v>44487</v>
       </c>
-      <c r="AF5" s="82">
-        <f>AE5+1</f>
+      <c r="AH5" s="82">
+        <f>AG5+1</f>
         <v>44488</v>
       </c>
-      <c r="AG5" s="82">
+      <c r="AI5" s="82">
         <f t="shared" si="0"/>
         <v>44489</v>
       </c>
-      <c r="AH5" s="82">
+      <c r="AJ5" s="82">
         <f t="shared" si="0"/>
         <v>44490</v>
       </c>
-      <c r="AI5" s="82">
+      <c r="AK5" s="82">
         <f t="shared" si="0"/>
         <v>44491</v>
       </c>
-      <c r="AJ5" s="82">
+      <c r="AL5" s="82">
         <f t="shared" si="0"/>
         <v>44492</v>
       </c>
-      <c r="AK5" s="83">
+      <c r="AM5" s="83">
         <f t="shared" si="0"/>
         <v>44493</v>
       </c>
-      <c r="AL5" s="81">
-        <f>AK5+1</f>
+      <c r="AN5" s="81">
+        <f>AM5+1</f>
         <v>44494</v>
       </c>
-      <c r="AM5" s="82">
-        <f>AL5+1</f>
+      <c r="AO5" s="82">
+        <f>AN5+1</f>
         <v>44495</v>
       </c>
-      <c r="AN5" s="82">
+      <c r="AP5" s="82">
         <f t="shared" si="0"/>
         <v>44496</v>
       </c>
-      <c r="AO5" s="82">
+      <c r="AQ5" s="82">
         <f t="shared" si="0"/>
         <v>44497</v>
       </c>
-      <c r="AP5" s="82">
+      <c r="AR5" s="82">
         <f t="shared" si="0"/>
         <v>44498</v>
       </c>
-      <c r="AQ5" s="82">
+      <c r="AS5" s="82">
         <f t="shared" si="0"/>
         <v>44499</v>
       </c>
-      <c r="AR5" s="83">
+      <c r="AT5" s="83">
         <f t="shared" si="0"/>
         <v>44500</v>
       </c>
-      <c r="AS5" s="81">
-        <f>AR5+1</f>
+      <c r="AU5" s="81">
+        <f>AT5+1</f>
         <v>44501</v>
       </c>
-      <c r="AT5" s="82">
-        <f>AS5+1</f>
+      <c r="AV5" s="82">
+        <f>AU5+1</f>
         <v>44502</v>
       </c>
-      <c r="AU5" s="82">
+      <c r="AW5" s="82">
         <f t="shared" si="0"/>
         <v>44503</v>
       </c>
-      <c r="AV5" s="82">
+      <c r="AX5" s="82">
         <f t="shared" si="0"/>
         <v>44504</v>
       </c>
-      <c r="AW5" s="82">
+      <c r="AY5" s="82">
         <f t="shared" si="0"/>
         <v>44505</v>
       </c>
-      <c r="AX5" s="82">
+      <c r="AZ5" s="82">
         <f t="shared" si="0"/>
         <v>44506</v>
       </c>
-      <c r="AY5" s="83">
+      <c r="BA5" s="83">
         <f t="shared" si="0"/>
         <v>44507</v>
       </c>
-      <c r="AZ5" s="81">
-        <f>AY5+1</f>
+      <c r="BB5" s="81">
+        <f>BA5+1</f>
         <v>44508</v>
       </c>
-      <c r="BA5" s="82">
-        <f>AZ5+1</f>
+      <c r="BC5" s="82">
+        <f>BB5+1</f>
         <v>44509</v>
       </c>
-      <c r="BB5" s="82">
-        <f t="shared" ref="BB5:BF5" si="1">BA5+1</f>
+      <c r="BD5" s="82">
+        <f t="shared" ref="BD5:BH5" si="1">BC5+1</f>
         <v>44510</v>
       </c>
-      <c r="BC5" s="82">
+      <c r="BE5" s="82">
         <f t="shared" si="1"/>
         <v>44511</v>
       </c>
-      <c r="BD5" s="82">
+      <c r="BF5" s="82">
         <f t="shared" si="1"/>
         <v>44512</v>
       </c>
-      <c r="BE5" s="82">
+      <c r="BG5" s="82">
         <f t="shared" si="1"/>
         <v>44513</v>
       </c>
-      <c r="BF5" s="83">
+      <c r="BH5" s="83">
         <f t="shared" si="1"/>
         <v>44514</v>
       </c>
-      <c r="BG5" s="81">
-        <f>BF5+1</f>
+      <c r="BI5" s="81">
+        <f>BH5+1</f>
         <v>44515</v>
       </c>
-      <c r="BH5" s="82">
-        <f>BG5+1</f>
+      <c r="BJ5" s="82">
+        <f>BI5+1</f>
         <v>44516</v>
       </c>
-      <c r="BI5" s="82">
-        <f t="shared" ref="BI5:BM5" si="2">BH5+1</f>
+      <c r="BK5" s="82">
+        <f t="shared" ref="BK5:BO5" si="2">BJ5+1</f>
         <v>44517</v>
       </c>
-      <c r="BJ5" s="82">
+      <c r="BL5" s="82">
         <f t="shared" si="2"/>
         <v>44518</v>
       </c>
-      <c r="BK5" s="82">
+      <c r="BM5" s="82">
         <f t="shared" si="2"/>
         <v>44519</v>
       </c>
-      <c r="BL5" s="82">
+      <c r="BN5" s="82">
         <f t="shared" si="2"/>
         <v>44520</v>
       </c>
-      <c r="BM5" s="83">
+      <c r="BO5" s="83">
         <f t="shared" si="2"/>
         <v>44521</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -3632,259 +3489,263 @@
         <v>70</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="44"/>
+        <v>108</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>110</v>
+      </c>
       <c r="I6" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="45" t="str">
-        <f t="shared" ref="J6:BM6" si="3">LEFT(TEXT(J5,"aaa"),1)</f>
+      <c r="L6" s="45" t="str">
+        <f t="shared" ref="L6:BO6" si="3">LEFT(TEXT(L5,"aaa"),1)</f>
         <v>月</v>
       </c>
-      <c r="K6" s="45" t="str">
+      <c r="M6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="L6" s="45" t="str">
+      <c r="N6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="M6" s="45" t="str">
+      <c r="O6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="N6" s="45" t="str">
+      <c r="P6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="O6" s="45" t="str">
+      <c r="Q6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="P6" s="45" t="str">
+      <c r="R6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="Q6" s="45" t="str">
+      <c r="S6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="R6" s="45" t="str">
+      <c r="T6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="S6" s="45" t="str">
+      <c r="U6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="T6" s="45" t="str">
+      <c r="V6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="U6" s="45" t="str">
+      <c r="W6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="V6" s="45" t="str">
+      <c r="X6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="W6" s="45" t="str">
+      <c r="Y6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="X6" s="45" t="str">
+      <c r="Z6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="Y6" s="45" t="str">
+      <c r="AA6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="Z6" s="45" t="str">
+      <c r="AB6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="AA6" s="45" t="str">
+      <c r="AC6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="AB6" s="45" t="str">
+      <c r="AD6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="AC6" s="45" t="str">
+      <c r="AE6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="AD6" s="45" t="str">
+      <c r="AF6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="AE6" s="45" t="str">
+      <c r="AG6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="AF6" s="45" t="str">
+      <c r="AH6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="AG6" s="45" t="str">
+      <c r="AI6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="AH6" s="45" t="str">
+      <c r="AJ6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="AI6" s="45" t="str">
+      <c r="AK6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="AJ6" s="45" t="str">
+      <c r="AL6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="AK6" s="45" t="str">
+      <c r="AM6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="AL6" s="45" t="str">
+      <c r="AN6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="AM6" s="45" t="str">
+      <c r="AO6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="AN6" s="45" t="str">
+      <c r="AP6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="AO6" s="45" t="str">
+      <c r="AQ6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="AP6" s="45" t="str">
+      <c r="AR6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="AQ6" s="45" t="str">
+      <c r="AS6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="AR6" s="45" t="str">
+      <c r="AT6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="AS6" s="45" t="str">
+      <c r="AU6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="AT6" s="45" t="str">
+      <c r="AV6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="AU6" s="45" t="str">
+      <c r="AW6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="AV6" s="45" t="str">
+      <c r="AX6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="AW6" s="45" t="str">
+      <c r="AY6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="AX6" s="45" t="str">
+      <c r="AZ6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="AY6" s="45" t="str">
+      <c r="BA6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="AZ6" s="45" t="str">
+      <c r="BB6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="BA6" s="45" t="str">
+      <c r="BC6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="BB6" s="45" t="str">
+      <c r="BD6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="BC6" s="45" t="str">
+      <c r="BE6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="BD6" s="45" t="str">
+      <c r="BF6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="BE6" s="45" t="str">
+      <c r="BG6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="BF6" s="45" t="str">
+      <c r="BH6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="BG6" s="45" t="str">
+      <c r="BI6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="BH6" s="45" t="str">
+      <c r="BJ6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="BI6" s="45" t="str">
+      <c r="BK6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="BJ6" s="45" t="str">
+      <c r="BL6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="BK6" s="45" t="str">
+      <c r="BM6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="BL6" s="45" t="str">
+      <c r="BN6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="BM6" s="45" t="str">
+      <c r="BO6" s="45" t="str">
         <f t="shared" si="3"/>
         <v>日</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:67" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="F7"/>
-      <c r="I7" t="str">
+      <c r="K7" t="str">
         <f>IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -3939,26 +3800,28 @@
       <c r="BK7" s="9"/>
       <c r="BL7" s="9"/>
       <c r="BM7" s="9"/>
-    </row>
-    <row r="8" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN7" s="9"/>
+      <c r="BO7" s="9"/>
+    </row>
+    <row r="8" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="47"/>
       <c r="F8" s="5"/>
       <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49" t="str">
-        <f t="shared" ref="I8:I58" si="4">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49" t="str">
+        <f t="shared" ref="K8:K33" si="4">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -4013,8 +3876,10 @@
       <c r="BK8" s="9"/>
       <c r="BL8" s="9"/>
       <c r="BM8" s="9"/>
-    </row>
-    <row r="9" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+    </row>
+    <row r="9" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -4037,13 +3902,17 @@
         <f>F9+(D9-1)</f>
         <v>44468</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49">
+      <c r="H9" s="18">
+        <v>44468</v>
+      </c>
+      <c r="I9" s="18">
+        <v>44468</v>
+      </c>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -4098,13 +3967,15 @@
       <c r="BK9" s="9"/>
       <c r="BL9" s="9"/>
       <c r="BM9" s="9"/>
-    </row>
-    <row r="10" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="9"/>
+    </row>
+    <row r="10" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>58</v>
@@ -4116,20 +3987,24 @@
         <v>1</v>
       </c>
       <c r="F10" s="18">
-        <f t="shared" ref="F10:F16" si="5">G9+1</f>
+        <f>G9+1</f>
         <v>44469</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" ref="G10:G38" si="6">F10+(D10-1)</f>
+        <f t="shared" ref="G10:G23" si="5">F10+(D10-1)</f>
         <v>44469</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49">
+      <c r="H10" s="18">
+        <v>44469</v>
+      </c>
+      <c r="I10" s="18">
+        <v>44469</v>
+      </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -4140,10 +4015,10 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
@@ -4184,8 +4059,10 @@
       <c r="BK10" s="9"/>
       <c r="BL10" s="9"/>
       <c r="BM10" s="9"/>
-    </row>
-    <row r="11" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="9"/>
+    </row>
+    <row r="11" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="32" t="s">
         <v>73</v>
@@ -4200,20 +4077,24 @@
         <v>1</v>
       </c>
       <c r="F11" s="18">
+        <f t="shared" ref="F11:F15" si="6">G10+1</f>
+        <v>44470</v>
+      </c>
+      <c r="G11" s="18">
         <f t="shared" si="5"/>
         <v>44470</v>
       </c>
-      <c r="G11" s="18">
-        <f t="shared" si="6"/>
+      <c r="H11" s="18">
         <v>44470</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49">
+      <c r="I11" s="18">
+        <v>44470</v>
+      </c>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -4268,11 +4149,13 @@
       <c r="BK11" s="9"/>
       <c r="BL11" s="9"/>
       <c r="BM11" s="9"/>
-    </row>
-    <row r="12" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN11" s="9"/>
+      <c r="BO11" s="9"/>
+    </row>
+    <row r="12" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="32" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>58</v>
@@ -4281,23 +4164,27 @@
         <v>1</v>
       </c>
       <c r="E12" s="50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F12" s="18">
+        <f t="shared" si="6"/>
+        <v>44471</v>
+      </c>
+      <c r="G12" s="18">
         <f t="shared" si="5"/>
         <v>44471</v>
       </c>
-      <c r="G12" s="18">
-        <f t="shared" si="6"/>
+      <c r="H12" s="18">
         <v>44471</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49">
+      <c r="I12" s="18">
+        <v>44471</v>
+      </c>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -4312,9 +4199,9 @@
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
-      <c r="Z12" s="10"/>
+      <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
+      <c r="AB12" s="10"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
@@ -4352,8 +4239,10 @@
       <c r="BK12" s="9"/>
       <c r="BL12" s="9"/>
       <c r="BM12" s="9"/>
-    </row>
-    <row r="13" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN12" s="9"/>
+      <c r="BO12" s="9"/>
+    </row>
+    <row r="13" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="32" t="s">
         <v>74</v>
@@ -4368,20 +4257,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="18">
+        <f t="shared" si="6"/>
+        <v>44472</v>
+      </c>
+      <c r="G13" s="18">
         <f t="shared" si="5"/>
         <v>44472</v>
       </c>
-      <c r="G13" s="18">
-        <f t="shared" si="6"/>
+      <c r="H13" s="18">
         <v>44472</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49">
+      <c r="I13" s="18">
+        <v>44472</v>
+      </c>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -4436,11 +4329,13 @@
       <c r="BK13" s="9"/>
       <c r="BL13" s="9"/>
       <c r="BM13" s="9"/>
-    </row>
-    <row r="14" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="9"/>
+    </row>
+    <row r="14" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="32" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>58</v>
@@ -4449,20 +4344,24 @@
         <v>1</v>
       </c>
       <c r="E14" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="18">
+        <f t="shared" si="6"/>
+        <v>44473</v>
+      </c>
+      <c r="G14" s="18">
         <f t="shared" si="5"/>
         <v>44473</v>
       </c>
-      <c r="G14" s="18">
-        <f t="shared" si="6"/>
+      <c r="H14" s="18">
         <v>44473</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="I14" s="18">
+        <v>44473</v>
+      </c>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -4517,11 +4416,13 @@
       <c r="BK14" s="9"/>
       <c r="BL14" s="9"/>
       <c r="BM14" s="9"/>
-    </row>
-    <row r="15" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+    </row>
+    <row r="15" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="32" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>58</v>
@@ -4533,17 +4434,17 @@
         <v>0</v>
       </c>
       <c r="F15" s="18">
+        <f t="shared" si="6"/>
+        <v>44474</v>
+      </c>
+      <c r="G15" s="18">
         <f t="shared" si="5"/>
         <v>44474</v>
       </c>
-      <c r="G15" s="18">
-        <f t="shared" si="6"/>
-        <v>44474</v>
-      </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -4598,33 +4499,28 @@
       <c r="BK15" s="9"/>
       <c r="BL15" s="9"/>
       <c r="BM15" s="9"/>
-    </row>
-    <row r="16" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="24">
-        <v>1</v>
-      </c>
-      <c r="E16" s="50">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <f t="shared" si="5"/>
-        <v>44475</v>
-      </c>
-      <c r="G16" s="18">
-        <f t="shared" si="6"/>
-        <v>44475</v>
-      </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="BN15" s="9"/>
+      <c r="BO15" s="9"/>
+    </row>
+    <row r="16" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -4679,33 +4575,42 @@
       <c r="BK16" s="9"/>
       <c r="BL16" s="9"/>
       <c r="BM16" s="9"/>
-    </row>
-    <row r="17" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN16" s="9"/>
+      <c r="BO16" s="9"/>
+    </row>
+    <row r="17" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="24">
+      <c r="B17" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="26">
         <v>1</v>
       </c>
-      <c r="E17" s="50">
-        <v>0</v>
-      </c>
-      <c r="F17" s="18">
-        <f t="shared" ref="F17:F18" si="7">G16+1</f>
-        <v>44476</v>
-      </c>
-      <c r="G17" s="18">
-        <f t="shared" ref="G17:G18" si="8">F17+(D17-1)</f>
-        <v>44476</v>
-      </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="E17" s="54">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
+        <f>G15+1</f>
+        <v>44475</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" si="5"/>
+        <v>44475</v>
+      </c>
+      <c r="H17" s="19">
+        <v>44473</v>
+      </c>
+      <c r="I17" s="19">
+        <v>44473</v>
+      </c>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -4760,33 +4665,39 @@
       <c r="BK17" s="9"/>
       <c r="BL17" s="9"/>
       <c r="BM17" s="9"/>
-    </row>
-    <row r="18" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN17" s="9"/>
+      <c r="BO17" s="9"/>
+    </row>
+    <row r="18" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
-      <c r="B18" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="24">
+      <c r="B18" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="26">
         <v>1</v>
       </c>
-      <c r="E18" s="50">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <f t="shared" si="7"/>
-        <v>44477</v>
-      </c>
-      <c r="G18" s="18">
-        <f t="shared" si="8"/>
-        <v>44477</v>
-      </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="E18" s="54">
+        <v>1</v>
+      </c>
+      <c r="F18" s="19">
+        <f>G17+1</f>
+        <v>44476</v>
+      </c>
+      <c r="G18" s="19">
+        <f t="shared" si="5"/>
+        <v>44476</v>
+      </c>
+      <c r="H18" s="19">
+        <v>44473</v>
+      </c>
+      <c r="I18" s="19">
+        <v>44473</v>
+      </c>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -4841,26 +4752,42 @@
       <c r="BK18" s="9"/>
       <c r="BL18" s="9"/>
       <c r="BM18" s="9"/>
-    </row>
-    <row r="19" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49" t="str">
+      <c r="BN18" s="9"/>
+      <c r="BO18" s="9"/>
+    </row>
+    <row r="19" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13"/>
+      <c r="B19" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="26">
+        <v>1</v>
+      </c>
+      <c r="E19" s="54">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <f>G18+1</f>
+        <v>44477</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="5"/>
+        <v>44477</v>
+      </c>
+      <c r="H19" s="19">
+        <v>44473</v>
+      </c>
+      <c r="I19" s="19">
+        <v>44473</v>
+      </c>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+        <v>1</v>
+      </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -4915,11 +4842,13 @@
       <c r="BK19" s="9"/>
       <c r="BL19" s="9"/>
       <c r="BM19" s="9"/>
-    </row>
-    <row r="20" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN19" s="9"/>
+      <c r="BO19" s="9"/>
+    </row>
+    <row r="20" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="33" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>58</v>
@@ -4928,23 +4857,27 @@
         <v>1</v>
       </c>
       <c r="E20" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="19">
-        <f>G18+1</f>
+        <f t="shared" ref="F20" si="7">G19+1</f>
         <v>44478</v>
       </c>
       <c r="G20" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44478</v>
       </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49">
+      <c r="H20" s="19">
+        <v>44473</v>
+      </c>
+      <c r="I20" s="19">
+        <v>44473</v>
+      </c>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -4957,8 +4890,8 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
@@ -4999,11 +4932,13 @@
       <c r="BK20" s="9"/>
       <c r="BL20" s="9"/>
       <c r="BM20" s="9"/>
-    </row>
-    <row r="21" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN20" s="9"/>
+      <c r="BO20" s="9"/>
+    </row>
+    <row r="21" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>58</v>
@@ -5015,17 +4950,17 @@
         <v>0</v>
       </c>
       <c r="F21" s="19">
-        <f>G20+1</f>
+        <f t="shared" ref="F21" si="8">G20+1</f>
         <v>44479</v>
       </c>
       <c r="G21" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G21" si="9">F21+(D21-1)</f>
         <v>44479</v>
       </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -5042,7 +4977,7 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
+      <c r="AB21" s="10"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
@@ -5080,36 +5015,28 @@
       <c r="BK21" s="9"/>
       <c r="BL21" s="9"/>
       <c r="BM21" s="9"/>
-    </row>
-    <row r="22" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="26">
-        <v>1</v>
-      </c>
-      <c r="E22" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="19">
-        <f>G21+1</f>
-        <v>44480</v>
-      </c>
-      <c r="G22" s="19">
-        <f t="shared" si="6"/>
-        <v>44480</v>
-      </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49">
+      <c r="BN21" s="9"/>
+      <c r="BO21" s="9"/>
+    </row>
+    <row r="22" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+        <v/>
+      </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -5164,36 +5091,38 @@
       <c r="BK22" s="9"/>
       <c r="BL22" s="9"/>
       <c r="BM22" s="9"/>
-    </row>
-    <row r="23" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN22" s="9"/>
+      <c r="BO22" s="9"/>
+    </row>
+    <row r="23" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
-      <c r="B23" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="B23" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="30">
         <v>1</v>
       </c>
-      <c r="E23" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="19">
-        <f t="shared" ref="F23:F26" si="9">G22+1</f>
-        <v>44481</v>
-      </c>
-      <c r="G23" s="19">
-        <f t="shared" si="6"/>
-        <v>44481</v>
-      </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49">
+      <c r="E23" s="62">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <f>G21+1</f>
+        <v>44480</v>
+      </c>
+      <c r="G23" s="21">
+        <f t="shared" si="5"/>
+        <v>44480</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -5204,8 +5133,8 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
@@ -5248,36 +5177,28 @@
       <c r="BK23" s="9"/>
       <c r="BL23" s="9"/>
       <c r="BM23" s="9"/>
-    </row>
-    <row r="24" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="26">
-        <v>1</v>
-      </c>
-      <c r="E24" s="54">
-        <v>0</v>
-      </c>
-      <c r="F24" s="19">
-        <f t="shared" si="9"/>
-        <v>44482</v>
-      </c>
-      <c r="G24" s="19">
-        <f t="shared" si="6"/>
-        <v>44482</v>
-      </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49">
+      <c r="BN23" s="9"/>
+      <c r="BO23" s="9"/>
+    </row>
+    <row r="24" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+        <v/>
+      </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -5332,36 +5253,35 @@
       <c r="BK24" s="9"/>
       <c r="BL24" s="9"/>
       <c r="BM24" s="9"/>
-    </row>
-    <row r="25" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="26">
+      <c r="BN24" s="9"/>
+      <c r="BO24" s="9"/>
+    </row>
+    <row r="25" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
+      <c r="B25" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="24">
         <v>1</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="50">
         <v>0</v>
       </c>
-      <c r="F25" s="19">
-        <f t="shared" si="9"/>
-        <v>44483</v>
-      </c>
-      <c r="G25" s="19">
-        <f t="shared" si="6"/>
-        <v>44483</v>
-      </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="F25" s="18">
+        <f>G23+1</f>
+        <v>44481</v>
+      </c>
+      <c r="G25" s="18">
+        <f>F25+(D25-1)</f>
+        <v>44481</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -5376,7 +5296,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
-      <c r="Z25" s="10"/>
+      <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
@@ -5416,33 +5336,35 @@
       <c r="BK25" s="9"/>
       <c r="BL25" s="9"/>
       <c r="BM25" s="9"/>
-    </row>
-    <row r="26" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
-      <c r="B26" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="26">
+      <c r="BN25" s="9"/>
+      <c r="BO25" s="9"/>
+    </row>
+    <row r="26" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13"/>
+      <c r="B26" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="24">
         <v>1</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="50">
         <v>0</v>
       </c>
-      <c r="F26" s="19">
-        <f t="shared" si="9"/>
-        <v>44484</v>
-      </c>
-      <c r="G26" s="19">
-        <f t="shared" si="6"/>
-        <v>44484</v>
-      </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="F26" s="18">
+        <f t="shared" ref="F26:F27" si="10">G25+1</f>
+        <v>44482</v>
+      </c>
+      <c r="G26" s="18">
+        <f t="shared" ref="G26:G27" si="11">F26+(D26-1)</f>
+        <v>44482</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -5457,7 +5379,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
-      <c r="Z26" s="10"/>
+      <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
@@ -5497,33 +5419,35 @@
       <c r="BK26" s="9"/>
       <c r="BL26" s="9"/>
       <c r="BM26" s="9"/>
-    </row>
-    <row r="27" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="26" t="s">
+      <c r="BN26" s="9"/>
+      <c r="BO26" s="9"/>
+    </row>
+    <row r="27" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13"/>
+      <c r="B27" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="24">
         <v>1</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="50">
         <v>0</v>
       </c>
-      <c r="F27" s="19">
-        <f t="shared" ref="F27:F28" si="10">G26+1</f>
-        <v>44485</v>
-      </c>
-      <c r="G27" s="19">
-        <f t="shared" ref="G27:G28" si="11">F27+(D27-1)</f>
-        <v>44485</v>
-      </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="F27" s="18">
+        <f t="shared" si="10"/>
+        <v>44483</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="11"/>
+        <v>44483</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -5538,7 +5462,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
-      <c r="Z27" s="10"/>
+      <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
@@ -5578,33 +5502,35 @@
       <c r="BK27" s="9"/>
       <c r="BL27" s="9"/>
       <c r="BM27" s="9"/>
-    </row>
-    <row r="28" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
-      <c r="B28" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="26" t="s">
+      <c r="BN27" s="9"/>
+      <c r="BO27" s="9"/>
+    </row>
+    <row r="28" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13"/>
+      <c r="B28" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="24">
         <v>1</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="50">
         <v>0</v>
       </c>
-      <c r="F28" s="19">
-        <f t="shared" si="10"/>
-        <v>44486</v>
-      </c>
-      <c r="G28" s="19">
-        <f t="shared" si="11"/>
-        <v>44486</v>
-      </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="F28" s="18">
+        <f t="shared" ref="F28:F29" si="12">G27+1</f>
+        <v>44484</v>
+      </c>
+      <c r="G28" s="18">
+        <f t="shared" ref="G28:G31" si="13">F28+(D28-1)</f>
+        <v>44484</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -5619,7 +5545,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
-      <c r="Z28" s="10"/>
+      <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
@@ -5659,26 +5585,35 @@
       <c r="BK28" s="9"/>
       <c r="BL28" s="9"/>
       <c r="BM28" s="9"/>
-    </row>
-    <row r="29" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="BN28" s="9"/>
+      <c r="BO28" s="9"/>
+    </row>
+    <row r="29" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="13"/>
+      <c r="B29" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1</v>
+      </c>
+      <c r="E29" s="50">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
+        <f t="shared" si="12"/>
+        <v>44485</v>
+      </c>
+      <c r="G29" s="18">
+        <f t="shared" si="13"/>
+        <v>44485</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -5733,36 +5668,28 @@
       <c r="BK29" s="9"/>
       <c r="BL29" s="9"/>
       <c r="BM29" s="9"/>
-    </row>
-    <row r="30" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="28">
-        <v>1</v>
-      </c>
-      <c r="E30" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="F30" s="20">
-        <f>G28+1</f>
-        <v>44487</v>
-      </c>
-      <c r="G30" s="20">
-        <f t="shared" si="6"/>
-        <v>44487</v>
-      </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49">
+      <c r="BN29" s="9"/>
+      <c r="BO29" s="9"/>
+    </row>
+    <row r="30" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+        <v/>
+      </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -5817,36 +5744,38 @@
       <c r="BK30" s="9"/>
       <c r="BL30" s="9"/>
       <c r="BM30" s="9"/>
-    </row>
-    <row r="31" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN30" s="9"/>
+      <c r="BO30" s="9"/>
+    </row>
+    <row r="31" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
-      <c r="B31" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="28">
+      <c r="B31" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="26">
         <v>1</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="54">
         <v>0</v>
       </c>
-      <c r="F31" s="20">
-        <f>G30+1</f>
-        <v>44488</v>
-      </c>
-      <c r="G31" s="20">
-        <f t="shared" si="6"/>
-        <v>44488</v>
-      </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49">
+      <c r="F31" s="19">
+        <f>G29+1</f>
+        <v>44486</v>
+      </c>
+      <c r="G31" s="19">
+        <f t="shared" si="13"/>
+        <v>44486</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -5901,36 +5830,35 @@
       <c r="BK31" s="9"/>
       <c r="BL31" s="9"/>
       <c r="BM31" s="9"/>
-    </row>
-    <row r="32" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN31" s="9"/>
+      <c r="BO31" s="9"/>
+    </row>
+    <row r="32" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
-      <c r="B32" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="28">
+      <c r="B32" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="26">
         <v>1</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E32" s="54">
         <v>0</v>
       </c>
-      <c r="F32" s="20">
-        <f t="shared" ref="F32:F34" si="12">G31+1</f>
-        <v>44489</v>
-      </c>
-      <c r="G32" s="20">
-        <f t="shared" si="6"/>
-        <v>44489</v>
-      </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="F32" s="19">
+        <f>G31+1</f>
+        <v>44487</v>
+      </c>
+      <c r="G32" s="19">
+        <f t="shared" ref="G32" si="14">F32+(D32-1)</f>
+        <v>44487</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -5985,2098 +5913,113 @@
       <c r="BK32" s="9"/>
       <c r="BL32" s="9"/>
       <c r="BM32" s="9"/>
-    </row>
-    <row r="33" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="28">
-        <v>1</v>
-      </c>
-      <c r="E33" s="58">
-        <v>0</v>
-      </c>
-      <c r="F33" s="20">
-        <f t="shared" si="12"/>
-        <v>44490</v>
-      </c>
-      <c r="G33" s="20">
-        <f t="shared" si="6"/>
-        <v>44490</v>
-      </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="9"/>
-      <c r="AQ33" s="9"/>
-      <c r="AR33" s="9"/>
-      <c r="AS33" s="9"/>
-      <c r="AT33" s="9"/>
-      <c r="AU33" s="9"/>
-      <c r="AV33" s="9"/>
-      <c r="AW33" s="9"/>
-      <c r="AX33" s="9"/>
-      <c r="AY33" s="9"/>
-      <c r="AZ33" s="9"/>
-      <c r="BA33" s="9"/>
-      <c r="BB33" s="9"/>
-      <c r="BC33" s="9"/>
-      <c r="BD33" s="9"/>
-      <c r="BE33" s="9"/>
-      <c r="BF33" s="9"/>
-      <c r="BG33" s="9"/>
-      <c r="BH33" s="9"/>
-      <c r="BI33" s="9"/>
-      <c r="BJ33" s="9"/>
-      <c r="BK33" s="9"/>
-      <c r="BL33" s="9"/>
-      <c r="BM33" s="9"/>
-    </row>
-    <row r="34" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
-      <c r="B34" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="28">
-        <v>1</v>
-      </c>
-      <c r="E34" s="58">
-        <v>0</v>
-      </c>
-      <c r="F34" s="20">
-        <f t="shared" si="12"/>
-        <v>44491</v>
-      </c>
-      <c r="G34" s="20">
-        <f t="shared" si="6"/>
-        <v>44491</v>
-      </c>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
-      <c r="AJ34" s="9"/>
-      <c r="AK34" s="9"/>
-      <c r="AL34" s="9"/>
-      <c r="AM34" s="9"/>
-      <c r="AN34" s="9"/>
-      <c r="AO34" s="9"/>
-      <c r="AP34" s="9"/>
-      <c r="AQ34" s="9"/>
-      <c r="AR34" s="9"/>
-      <c r="AS34" s="9"/>
-      <c r="AT34" s="9"/>
-      <c r="AU34" s="9"/>
-      <c r="AV34" s="9"/>
-      <c r="AW34" s="9"/>
-      <c r="AX34" s="9"/>
-      <c r="AY34" s="9"/>
-      <c r="AZ34" s="9"/>
-      <c r="BA34" s="9"/>
-      <c r="BB34" s="9"/>
-      <c r="BC34" s="9"/>
-      <c r="BD34" s="9"/>
-      <c r="BE34" s="9"/>
-      <c r="BF34" s="9"/>
-      <c r="BG34" s="9"/>
-      <c r="BH34" s="9"/>
-      <c r="BI34" s="9"/>
-      <c r="BJ34" s="9"/>
-      <c r="BK34" s="9"/>
-      <c r="BL34" s="9"/>
-      <c r="BM34" s="9"/>
-    </row>
-    <row r="35" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49" t="str">
+      <c r="BN32" s="9"/>
+      <c r="BO32" s="9"/>
+    </row>
+    <row r="33" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
-      <c r="AJ35" s="9"/>
-      <c r="AK35" s="9"/>
-      <c r="AL35" s="9"/>
-      <c r="AM35" s="9"/>
-      <c r="AN35" s="9"/>
-      <c r="AO35" s="9"/>
-      <c r="AP35" s="9"/>
-      <c r="AQ35" s="9"/>
-      <c r="AR35" s="9"/>
-      <c r="AS35" s="9"/>
-      <c r="AT35" s="9"/>
-      <c r="AU35" s="9"/>
-      <c r="AV35" s="9"/>
-      <c r="AW35" s="9"/>
-      <c r="AX35" s="9"/>
-      <c r="AY35" s="9"/>
-      <c r="AZ35" s="9"/>
-      <c r="BA35" s="9"/>
-      <c r="BB35" s="9"/>
-      <c r="BC35" s="9"/>
-      <c r="BD35" s="9"/>
-      <c r="BE35" s="9"/>
-      <c r="BF35" s="9"/>
-      <c r="BG35" s="9"/>
-      <c r="BH35" s="9"/>
-      <c r="BI35" s="9"/>
-      <c r="BJ35" s="9"/>
-      <c r="BK35" s="9"/>
-      <c r="BL35" s="9"/>
-      <c r="BM35" s="9"/>
-    </row>
-    <row r="36" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
-      <c r="B36" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="30">
-        <v>1</v>
-      </c>
-      <c r="E36" s="62">
-        <v>0</v>
-      </c>
-      <c r="F36" s="21">
-        <f>G34+1</f>
-        <v>44492</v>
-      </c>
-      <c r="G36" s="21">
-        <f t="shared" si="6"/>
-        <v>44492</v>
-      </c>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
-      <c r="AG36" s="9"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="9"/>
-      <c r="AJ36" s="9"/>
-      <c r="AK36" s="9"/>
-      <c r="AL36" s="9"/>
-      <c r="AM36" s="9"/>
-      <c r="AN36" s="9"/>
-      <c r="AO36" s="9"/>
-      <c r="AP36" s="9"/>
-      <c r="AQ36" s="9"/>
-      <c r="AR36" s="9"/>
-      <c r="AS36" s="9"/>
-      <c r="AT36" s="9"/>
-      <c r="AU36" s="9"/>
-      <c r="AV36" s="9"/>
-      <c r="AW36" s="9"/>
-      <c r="AX36" s="9"/>
-      <c r="AY36" s="9"/>
-      <c r="AZ36" s="9"/>
-      <c r="BA36" s="9"/>
-      <c r="BB36" s="9"/>
-      <c r="BC36" s="9"/>
-      <c r="BD36" s="9"/>
-      <c r="BE36" s="9"/>
-      <c r="BF36" s="9"/>
-      <c r="BG36" s="9"/>
-      <c r="BH36" s="9"/>
-      <c r="BI36" s="9"/>
-      <c r="BJ36" s="9"/>
-      <c r="BK36" s="9"/>
-      <c r="BL36" s="9"/>
-      <c r="BM36" s="9"/>
-    </row>
-    <row r="37" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="12"/>
-      <c r="B37" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="30">
-        <v>1</v>
-      </c>
-      <c r="E37" s="62">
-        <v>0</v>
-      </c>
-      <c r="F37" s="21">
-        <f>G36+1</f>
-        <v>44493</v>
-      </c>
-      <c r="G37" s="21">
-        <f t="shared" si="6"/>
-        <v>44493</v>
-      </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
-      <c r="AJ37" s="9"/>
-      <c r="AK37" s="9"/>
-      <c r="AL37" s="9"/>
-      <c r="AM37" s="9"/>
-      <c r="AN37" s="9"/>
-      <c r="AO37" s="9"/>
-      <c r="AP37" s="9"/>
-      <c r="AQ37" s="9"/>
-      <c r="AR37" s="9"/>
-      <c r="AS37" s="9"/>
-      <c r="AT37" s="9"/>
-      <c r="AU37" s="9"/>
-      <c r="AV37" s="9"/>
-      <c r="AW37" s="9"/>
-      <c r="AX37" s="9"/>
-      <c r="AY37" s="9"/>
-      <c r="AZ37" s="9"/>
-      <c r="BA37" s="9"/>
-      <c r="BB37" s="9"/>
-      <c r="BC37" s="9"/>
-      <c r="BD37" s="9"/>
-      <c r="BE37" s="9"/>
-      <c r="BF37" s="9"/>
-      <c r="BG37" s="9"/>
-      <c r="BH37" s="9"/>
-      <c r="BI37" s="9"/>
-      <c r="BJ37" s="9"/>
-      <c r="BK37" s="9"/>
-      <c r="BL37" s="9"/>
-      <c r="BM37" s="9"/>
-    </row>
-    <row r="38" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="12"/>
-      <c r="B38" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="30">
-        <v>1</v>
-      </c>
-      <c r="E38" s="62">
-        <v>0</v>
-      </c>
-      <c r="F38" s="21">
-        <f>G37+1</f>
-        <v>44494</v>
-      </c>
-      <c r="G38" s="21">
-        <f t="shared" si="6"/>
-        <v>44494</v>
-      </c>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="9"/>
-      <c r="AK38" s="9"/>
-      <c r="AL38" s="9"/>
-      <c r="AM38" s="9"/>
-      <c r="AN38" s="9"/>
-      <c r="AO38" s="9"/>
-      <c r="AP38" s="9"/>
-      <c r="AQ38" s="9"/>
-      <c r="AR38" s="9"/>
-      <c r="AS38" s="9"/>
-      <c r="AT38" s="9"/>
-      <c r="AU38" s="9"/>
-      <c r="AV38" s="9"/>
-      <c r="AW38" s="9"/>
-      <c r="AX38" s="9"/>
-      <c r="AY38" s="9"/>
-      <c r="AZ38" s="9"/>
-      <c r="BA38" s="9"/>
-      <c r="BB38" s="9"/>
-      <c r="BC38" s="9"/>
-      <c r="BD38" s="9"/>
-      <c r="BE38" s="9"/>
-      <c r="BF38" s="9"/>
-      <c r="BG38" s="9"/>
-      <c r="BH38" s="9"/>
-      <c r="BI38" s="9"/>
-      <c r="BJ38" s="9"/>
-      <c r="BK38" s="9"/>
-      <c r="BL38" s="9"/>
-      <c r="BM38" s="9"/>
-    </row>
-    <row r="39" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="9"/>
-      <c r="AJ39" s="9"/>
-      <c r="AK39" s="9"/>
-      <c r="AL39" s="9"/>
-      <c r="AM39" s="9"/>
-      <c r="AN39" s="9"/>
-      <c r="AO39" s="9"/>
-      <c r="AP39" s="9"/>
-      <c r="AQ39" s="9"/>
-      <c r="AR39" s="9"/>
-      <c r="AS39" s="9"/>
-      <c r="AT39" s="9"/>
-      <c r="AU39" s="9"/>
-      <c r="AV39" s="9"/>
-      <c r="AW39" s="9"/>
-      <c r="AX39" s="9"/>
-      <c r="AY39" s="9"/>
-      <c r="AZ39" s="9"/>
-      <c r="BA39" s="9"/>
-      <c r="BB39" s="9"/>
-      <c r="BC39" s="9"/>
-      <c r="BD39" s="9"/>
-      <c r="BE39" s="9"/>
-      <c r="BF39" s="9"/>
-      <c r="BG39" s="9"/>
-      <c r="BH39" s="9"/>
-      <c r="BI39" s="9"/>
-      <c r="BJ39" s="9"/>
-      <c r="BK39" s="9"/>
-      <c r="BL39" s="9"/>
-      <c r="BM39" s="9"/>
-    </row>
-    <row r="40" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="12"/>
-      <c r="B40" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="24">
-        <v>1</v>
-      </c>
-      <c r="E40" s="50">
-        <v>0</v>
-      </c>
-      <c r="F40" s="18">
-        <f>G38+1</f>
-        <v>44495</v>
-      </c>
-      <c r="G40" s="18">
-        <f>F40+(D40-1)</f>
-        <v>44495</v>
-      </c>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="9"/>
-      <c r="AE40" s="9"/>
-      <c r="AF40" s="9"/>
-      <c r="AG40" s="9"/>
-      <c r="AH40" s="9"/>
-      <c r="AI40" s="9"/>
-      <c r="AJ40" s="9"/>
-      <c r="AK40" s="9"/>
-      <c r="AL40" s="9"/>
-      <c r="AM40" s="9"/>
-      <c r="AN40" s="9"/>
-      <c r="AO40" s="9"/>
-      <c r="AP40" s="9"/>
-      <c r="AQ40" s="9"/>
-      <c r="AR40" s="9"/>
-      <c r="AS40" s="9"/>
-      <c r="AT40" s="9"/>
-      <c r="AU40" s="9"/>
-      <c r="AV40" s="9"/>
-      <c r="AW40" s="9"/>
-      <c r="AX40" s="9"/>
-      <c r="AY40" s="9"/>
-      <c r="AZ40" s="9"/>
-      <c r="BA40" s="9"/>
-      <c r="BB40" s="9"/>
-      <c r="BC40" s="9"/>
-      <c r="BD40" s="9"/>
-      <c r="BE40" s="9"/>
-      <c r="BF40" s="9"/>
-      <c r="BG40" s="9"/>
-      <c r="BH40" s="9"/>
-      <c r="BI40" s="9"/>
-      <c r="BJ40" s="9"/>
-      <c r="BK40" s="9"/>
-      <c r="BL40" s="9"/>
-      <c r="BM40" s="9"/>
-    </row>
-    <row r="41" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="12"/>
-      <c r="B41" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="24">
-        <v>1</v>
-      </c>
-      <c r="E41" s="50">
-        <v>0</v>
-      </c>
-      <c r="F41" s="18">
-        <f>G40+1</f>
-        <v>44496</v>
-      </c>
-      <c r="G41" s="18">
-        <f>F41+(D41-1)</f>
-        <v>44496</v>
-      </c>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
-      <c r="AG41" s="9"/>
-      <c r="AH41" s="9"/>
-      <c r="AI41" s="9"/>
-      <c r="AJ41" s="9"/>
-      <c r="AK41" s="9"/>
-      <c r="AL41" s="9"/>
-      <c r="AM41" s="9"/>
-      <c r="AN41" s="9"/>
-      <c r="AO41" s="9"/>
-      <c r="AP41" s="9"/>
-      <c r="AQ41" s="9"/>
-      <c r="AR41" s="9"/>
-      <c r="AS41" s="9"/>
-      <c r="AT41" s="9"/>
-      <c r="AU41" s="9"/>
-      <c r="AV41" s="9"/>
-      <c r="AW41" s="9"/>
-      <c r="AX41" s="9"/>
-      <c r="AY41" s="9"/>
-      <c r="AZ41" s="9"/>
-      <c r="BA41" s="9"/>
-      <c r="BB41" s="9"/>
-      <c r="BC41" s="9"/>
-      <c r="BD41" s="9"/>
-      <c r="BE41" s="9"/>
-      <c r="BF41" s="9"/>
-      <c r="BG41" s="9"/>
-      <c r="BH41" s="9"/>
-      <c r="BI41" s="9"/>
-      <c r="BJ41" s="9"/>
-      <c r="BK41" s="9"/>
-      <c r="BL41" s="9"/>
-      <c r="BM41" s="9"/>
-    </row>
-    <row r="42" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="12"/>
-      <c r="B42" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="24">
-        <v>1</v>
-      </c>
-      <c r="E42" s="50">
-        <v>0</v>
-      </c>
-      <c r="F42" s="18">
-        <f t="shared" ref="F42:F44" si="13">G41+1</f>
-        <v>44497</v>
-      </c>
-      <c r="G42" s="18">
-        <f t="shared" ref="G42:G44" si="14">F42+(D42-1)</f>
-        <v>44497</v>
-      </c>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="9"/>
-      <c r="AH42" s="9"/>
-      <c r="AI42" s="9"/>
-      <c r="AJ42" s="9"/>
-      <c r="AK42" s="9"/>
-      <c r="AL42" s="9"/>
-      <c r="AM42" s="9"/>
-      <c r="AN42" s="9"/>
-      <c r="AO42" s="9"/>
-      <c r="AP42" s="9"/>
-      <c r="AQ42" s="9"/>
-      <c r="AR42" s="9"/>
-      <c r="AS42" s="9"/>
-      <c r="AT42" s="9"/>
-      <c r="AU42" s="9"/>
-      <c r="AV42" s="9"/>
-      <c r="AW42" s="9"/>
-      <c r="AX42" s="9"/>
-      <c r="AY42" s="9"/>
-      <c r="AZ42" s="9"/>
-      <c r="BA42" s="9"/>
-      <c r="BB42" s="9"/>
-      <c r="BC42" s="9"/>
-      <c r="BD42" s="9"/>
-      <c r="BE42" s="9"/>
-      <c r="BF42" s="9"/>
-      <c r="BG42" s="9"/>
-      <c r="BH42" s="9"/>
-      <c r="BI42" s="9"/>
-      <c r="BJ42" s="9"/>
-      <c r="BK42" s="9"/>
-      <c r="BL42" s="9"/>
-      <c r="BM42" s="9"/>
-    </row>
-    <row r="43" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="12"/>
-      <c r="B43" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="24">
-        <v>1</v>
-      </c>
-      <c r="E43" s="50">
-        <v>0</v>
-      </c>
-      <c r="F43" s="18">
-        <f t="shared" si="13"/>
-        <v>44498</v>
-      </c>
-      <c r="G43" s="18">
-        <f t="shared" si="14"/>
-        <v>44498</v>
-      </c>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9"/>
-      <c r="AH43" s="9"/>
-      <c r="AI43" s="9"/>
-      <c r="AJ43" s="9"/>
-      <c r="AK43" s="9"/>
-      <c r="AL43" s="9"/>
-      <c r="AM43" s="9"/>
-      <c r="AN43" s="9"/>
-      <c r="AO43" s="9"/>
-      <c r="AP43" s="9"/>
-      <c r="AQ43" s="9"/>
-      <c r="AR43" s="9"/>
-      <c r="AS43" s="9"/>
-      <c r="AT43" s="9"/>
-      <c r="AU43" s="9"/>
-      <c r="AV43" s="9"/>
-      <c r="AW43" s="9"/>
-      <c r="AX43" s="9"/>
-      <c r="AY43" s="9"/>
-      <c r="AZ43" s="9"/>
-      <c r="BA43" s="9"/>
-      <c r="BB43" s="9"/>
-      <c r="BC43" s="9"/>
-      <c r="BD43" s="9"/>
-      <c r="BE43" s="9"/>
-      <c r="BF43" s="9"/>
-      <c r="BG43" s="9"/>
-      <c r="BH43" s="9"/>
-      <c r="BI43" s="9"/>
-      <c r="BJ43" s="9"/>
-      <c r="BK43" s="9"/>
-      <c r="BL43" s="9"/>
-      <c r="BM43" s="9"/>
-    </row>
-    <row r="44" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12"/>
-      <c r="B44" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="24">
-        <v>1</v>
-      </c>
-      <c r="E44" s="50">
-        <v>0</v>
-      </c>
-      <c r="F44" s="18">
-        <f t="shared" si="13"/>
-        <v>44499</v>
-      </c>
-      <c r="G44" s="18">
-        <f t="shared" si="14"/>
-        <v>44499</v>
-      </c>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="9"/>
-      <c r="AE44" s="9"/>
-      <c r="AF44" s="9"/>
-      <c r="AG44" s="9"/>
-      <c r="AH44" s="9"/>
-      <c r="AI44" s="9"/>
-      <c r="AJ44" s="9"/>
-      <c r="AK44" s="9"/>
-      <c r="AL44" s="9"/>
-      <c r="AM44" s="9"/>
-      <c r="AN44" s="9"/>
-      <c r="AO44" s="9"/>
-      <c r="AP44" s="9"/>
-      <c r="AQ44" s="9"/>
-      <c r="AR44" s="9"/>
-      <c r="AS44" s="9"/>
-      <c r="AT44" s="9"/>
-      <c r="AU44" s="9"/>
-      <c r="AV44" s="9"/>
-      <c r="AW44" s="9"/>
-      <c r="AX44" s="9"/>
-      <c r="AY44" s="9"/>
-      <c r="AZ44" s="9"/>
-      <c r="BA44" s="9"/>
-      <c r="BB44" s="9"/>
-      <c r="BC44" s="9"/>
-      <c r="BD44" s="9"/>
-      <c r="BE44" s="9"/>
-      <c r="BF44" s="9"/>
-      <c r="BG44" s="9"/>
-      <c r="BH44" s="9"/>
-      <c r="BI44" s="9"/>
-      <c r="BJ44" s="9"/>
-      <c r="BK44" s="9"/>
-      <c r="BL44" s="9"/>
-      <c r="BM44" s="9"/>
-    </row>
-    <row r="45" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="9"/>
-      <c r="AD45" s="9"/>
-      <c r="AE45" s="9"/>
-      <c r="AF45" s="9"/>
-      <c r="AG45" s="9"/>
-      <c r="AH45" s="9"/>
-      <c r="AI45" s="9"/>
-      <c r="AJ45" s="9"/>
-      <c r="AK45" s="9"/>
-      <c r="AL45" s="9"/>
-      <c r="AM45" s="9"/>
-      <c r="AN45" s="9"/>
-      <c r="AO45" s="9"/>
-      <c r="AP45" s="9"/>
-      <c r="AQ45" s="9"/>
-      <c r="AR45" s="9"/>
-      <c r="AS45" s="9"/>
-      <c r="AT45" s="9"/>
-      <c r="AU45" s="9"/>
-      <c r="AV45" s="9"/>
-      <c r="AW45" s="9"/>
-      <c r="AX45" s="9"/>
-      <c r="AY45" s="9"/>
-      <c r="AZ45" s="9"/>
-      <c r="BA45" s="9"/>
-      <c r="BB45" s="9"/>
-      <c r="BC45" s="9"/>
-      <c r="BD45" s="9"/>
-      <c r="BE45" s="9"/>
-      <c r="BF45" s="9"/>
-      <c r="BG45" s="9"/>
-      <c r="BH45" s="9"/>
-      <c r="BI45" s="9"/>
-      <c r="BJ45" s="9"/>
-      <c r="BK45" s="9"/>
-      <c r="BL45" s="9"/>
-      <c r="BM45" s="9"/>
-    </row>
-    <row r="46" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="12"/>
-      <c r="B46" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="30">
-        <v>1</v>
-      </c>
-      <c r="E46" s="62">
-        <v>0</v>
-      </c>
-      <c r="F46" s="21">
-        <f>G44+1</f>
-        <v>44500</v>
-      </c>
-      <c r="G46" s="21">
-        <f t="shared" ref="G46:G48" si="15">F46+(D46-1)</f>
-        <v>44500</v>
-      </c>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
-      <c r="AG46" s="9"/>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="9"/>
-      <c r="AJ46" s="9"/>
-      <c r="AK46" s="9"/>
-      <c r="AL46" s="9"/>
-      <c r="AM46" s="9"/>
-      <c r="AN46" s="9"/>
-      <c r="AO46" s="9"/>
-      <c r="AP46" s="9"/>
-      <c r="AQ46" s="9"/>
-      <c r="AR46" s="9"/>
-      <c r="AS46" s="9"/>
-      <c r="AT46" s="9"/>
-      <c r="AU46" s="9"/>
-      <c r="AV46" s="9"/>
-      <c r="AW46" s="9"/>
-      <c r="AX46" s="9"/>
-      <c r="AY46" s="9"/>
-      <c r="AZ46" s="9"/>
-      <c r="BA46" s="9"/>
-      <c r="BB46" s="9"/>
-      <c r="BC46" s="9"/>
-      <c r="BD46" s="9"/>
-      <c r="BE46" s="9"/>
-      <c r="BF46" s="9"/>
-      <c r="BG46" s="9"/>
-      <c r="BH46" s="9"/>
-      <c r="BI46" s="9"/>
-      <c r="BJ46" s="9"/>
-      <c r="BK46" s="9"/>
-      <c r="BL46" s="9"/>
-      <c r="BM46" s="9"/>
-    </row>
-    <row r="47" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="12"/>
-      <c r="B47" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="30">
-        <v>1</v>
-      </c>
-      <c r="E47" s="62">
-        <v>0</v>
-      </c>
-      <c r="F47" s="21">
-        <f t="shared" ref="F47:F48" si="16">G46+1</f>
-        <v>44501</v>
-      </c>
-      <c r="G47" s="21">
-        <f t="shared" si="15"/>
-        <v>44501</v>
-      </c>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
-      <c r="AC47" s="9"/>
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="9"/>
-      <c r="AF47" s="9"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="9"/>
-      <c r="AI47" s="9"/>
-      <c r="AJ47" s="9"/>
-      <c r="AK47" s="9"/>
-      <c r="AL47" s="9"/>
-      <c r="AM47" s="9"/>
-      <c r="AN47" s="9"/>
-      <c r="AO47" s="9"/>
-      <c r="AP47" s="9"/>
-      <c r="AQ47" s="9"/>
-      <c r="AR47" s="9"/>
-      <c r="AS47" s="9"/>
-      <c r="AT47" s="9"/>
-      <c r="AU47" s="9"/>
-      <c r="AV47" s="9"/>
-      <c r="AW47" s="9"/>
-      <c r="AX47" s="9"/>
-      <c r="AY47" s="9"/>
-      <c r="AZ47" s="9"/>
-      <c r="BA47" s="9"/>
-      <c r="BB47" s="9"/>
-      <c r="BC47" s="9"/>
-      <c r="BD47" s="9"/>
-      <c r="BE47" s="9"/>
-      <c r="BF47" s="9"/>
-      <c r="BG47" s="9"/>
-      <c r="BH47" s="9"/>
-      <c r="BI47" s="9"/>
-      <c r="BJ47" s="9"/>
-      <c r="BK47" s="9"/>
-      <c r="BL47" s="9"/>
-      <c r="BM47" s="9"/>
-    </row>
-    <row r="48" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="30">
-        <v>1</v>
-      </c>
-      <c r="E48" s="62">
-        <v>0</v>
-      </c>
-      <c r="F48" s="21">
-        <f t="shared" si="16"/>
-        <v>44502</v>
-      </c>
-      <c r="G48" s="21">
-        <f t="shared" si="15"/>
-        <v>44502</v>
-      </c>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-      <c r="AC48" s="9"/>
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="9"/>
-      <c r="AI48" s="9"/>
-      <c r="AJ48" s="9"/>
-      <c r="AK48" s="9"/>
-      <c r="AL48" s="9"/>
-      <c r="AM48" s="9"/>
-      <c r="AN48" s="9"/>
-      <c r="AO48" s="9"/>
-      <c r="AP48" s="9"/>
-      <c r="AQ48" s="9"/>
-      <c r="AR48" s="9"/>
-      <c r="AS48" s="9"/>
-      <c r="AT48" s="9"/>
-      <c r="AU48" s="9"/>
-      <c r="AV48" s="9"/>
-      <c r="AW48" s="9"/>
-      <c r="AX48" s="9"/>
-      <c r="AY48" s="9"/>
-      <c r="AZ48" s="9"/>
-      <c r="BA48" s="9"/>
-      <c r="BB48" s="9"/>
-      <c r="BC48" s="9"/>
-      <c r="BD48" s="9"/>
-      <c r="BE48" s="9"/>
-      <c r="BF48" s="9"/>
-      <c r="BG48" s="9"/>
-      <c r="BH48" s="9"/>
-      <c r="BI48" s="9"/>
-      <c r="BJ48" s="9"/>
-      <c r="BK48" s="9"/>
-      <c r="BL48" s="9"/>
-      <c r="BM48" s="9"/>
-    </row>
-    <row r="49" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
-      <c r="AD49" s="9"/>
-      <c r="AE49" s="9"/>
-      <c r="AF49" s="9"/>
-      <c r="AG49" s="9"/>
-      <c r="AH49" s="9"/>
-      <c r="AI49" s="9"/>
-      <c r="AJ49" s="9"/>
-      <c r="AK49" s="9"/>
-      <c r="AL49" s="9"/>
-      <c r="AM49" s="9"/>
-      <c r="AN49" s="9"/>
-      <c r="AO49" s="9"/>
-      <c r="AP49" s="9"/>
-      <c r="AQ49" s="9"/>
-      <c r="AR49" s="9"/>
-      <c r="AS49" s="9"/>
-      <c r="AT49" s="9"/>
-      <c r="AU49" s="9"/>
-      <c r="AV49" s="9"/>
-      <c r="AW49" s="9"/>
-      <c r="AX49" s="9"/>
-      <c r="AY49" s="9"/>
-      <c r="AZ49" s="9"/>
-      <c r="BA49" s="9"/>
-      <c r="BB49" s="9"/>
-      <c r="BC49" s="9"/>
-      <c r="BD49" s="9"/>
-      <c r="BE49" s="9"/>
-      <c r="BF49" s="9"/>
-      <c r="BG49" s="9"/>
-      <c r="BH49" s="9"/>
-      <c r="BI49" s="9"/>
-      <c r="BJ49" s="9"/>
-      <c r="BK49" s="9"/>
-      <c r="BL49" s="9"/>
-      <c r="BM49" s="9"/>
-    </row>
-    <row r="50" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="13"/>
-      <c r="B50" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="24">
-        <v>1</v>
-      </c>
-      <c r="E50" s="50">
-        <v>0</v>
-      </c>
-      <c r="F50" s="18">
-        <f>G48+1</f>
-        <v>44503</v>
-      </c>
-      <c r="G50" s="18">
-        <f>F50+(D50-1)</f>
-        <v>44503</v>
-      </c>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
-      <c r="AD50" s="9"/>
-      <c r="AE50" s="9"/>
-      <c r="AF50" s="9"/>
-      <c r="AG50" s="9"/>
-      <c r="AH50" s="9"/>
-      <c r="AI50" s="9"/>
-      <c r="AJ50" s="9"/>
-      <c r="AK50" s="9"/>
-      <c r="AL50" s="9"/>
-      <c r="AM50" s="9"/>
-      <c r="AN50" s="9"/>
-      <c r="AO50" s="9"/>
-      <c r="AP50" s="9"/>
-      <c r="AQ50" s="9"/>
-      <c r="AR50" s="9"/>
-      <c r="AS50" s="9"/>
-      <c r="AT50" s="9"/>
-      <c r="AU50" s="9"/>
-      <c r="AV50" s="9"/>
-      <c r="AW50" s="9"/>
-      <c r="AX50" s="9"/>
-      <c r="AY50" s="9"/>
-      <c r="AZ50" s="9"/>
-      <c r="BA50" s="9"/>
-      <c r="BB50" s="9"/>
-      <c r="BC50" s="9"/>
-      <c r="BD50" s="9"/>
-      <c r="BE50" s="9"/>
-      <c r="BF50" s="9"/>
-      <c r="BG50" s="9"/>
-      <c r="BH50" s="9"/>
-      <c r="BI50" s="9"/>
-      <c r="BJ50" s="9"/>
-      <c r="BK50" s="9"/>
-      <c r="BL50" s="9"/>
-      <c r="BM50" s="9"/>
-    </row>
-    <row r="51" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="13"/>
-      <c r="B51" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="24">
-        <v>1</v>
-      </c>
-      <c r="E51" s="50">
-        <v>0</v>
-      </c>
-      <c r="F51" s="18">
-        <f t="shared" ref="F51:F52" si="17">G50+1</f>
-        <v>44504</v>
-      </c>
-      <c r="G51" s="18">
-        <f t="shared" ref="G51:G52" si="18">F51+(D51-1)</f>
-        <v>44504</v>
-      </c>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="9"/>
-      <c r="AC51" s="9"/>
-      <c r="AD51" s="9"/>
-      <c r="AE51" s="9"/>
-      <c r="AF51" s="9"/>
-      <c r="AG51" s="9"/>
-      <c r="AH51" s="9"/>
-      <c r="AI51" s="9"/>
-      <c r="AJ51" s="9"/>
-      <c r="AK51" s="9"/>
-      <c r="AL51" s="9"/>
-      <c r="AM51" s="9"/>
-      <c r="AN51" s="9"/>
-      <c r="AO51" s="9"/>
-      <c r="AP51" s="9"/>
-      <c r="AQ51" s="9"/>
-      <c r="AR51" s="9"/>
-      <c r="AS51" s="9"/>
-      <c r="AT51" s="9"/>
-      <c r="AU51" s="9"/>
-      <c r="AV51" s="9"/>
-      <c r="AW51" s="9"/>
-      <c r="AX51" s="9"/>
-      <c r="AY51" s="9"/>
-      <c r="AZ51" s="9"/>
-      <c r="BA51" s="9"/>
-      <c r="BB51" s="9"/>
-      <c r="BC51" s="9"/>
-      <c r="BD51" s="9"/>
-      <c r="BE51" s="9"/>
-      <c r="BF51" s="9"/>
-      <c r="BG51" s="9"/>
-      <c r="BH51" s="9"/>
-      <c r="BI51" s="9"/>
-      <c r="BJ51" s="9"/>
-      <c r="BK51" s="9"/>
-      <c r="BL51" s="9"/>
-      <c r="BM51" s="9"/>
-    </row>
-    <row r="52" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="13"/>
-      <c r="B52" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="24">
-        <v>1</v>
-      </c>
-      <c r="E52" s="50">
-        <v>0</v>
-      </c>
-      <c r="F52" s="18">
-        <f t="shared" si="17"/>
-        <v>44505</v>
-      </c>
-      <c r="G52" s="18">
-        <f t="shared" si="18"/>
-        <v>44505</v>
-      </c>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
-      <c r="AE52" s="9"/>
-      <c r="AF52" s="9"/>
-      <c r="AG52" s="9"/>
-      <c r="AH52" s="9"/>
-      <c r="AI52" s="9"/>
-      <c r="AJ52" s="9"/>
-      <c r="AK52" s="9"/>
-      <c r="AL52" s="9"/>
-      <c r="AM52" s="9"/>
-      <c r="AN52" s="9"/>
-      <c r="AO52" s="9"/>
-      <c r="AP52" s="9"/>
-      <c r="AQ52" s="9"/>
-      <c r="AR52" s="9"/>
-      <c r="AS52" s="9"/>
-      <c r="AT52" s="9"/>
-      <c r="AU52" s="9"/>
-      <c r="AV52" s="9"/>
-      <c r="AW52" s="9"/>
-      <c r="AX52" s="9"/>
-      <c r="AY52" s="9"/>
-      <c r="AZ52" s="9"/>
-      <c r="BA52" s="9"/>
-      <c r="BB52" s="9"/>
-      <c r="BC52" s="9"/>
-      <c r="BD52" s="9"/>
-      <c r="BE52" s="9"/>
-      <c r="BF52" s="9"/>
-      <c r="BG52" s="9"/>
-      <c r="BH52" s="9"/>
-      <c r="BI52" s="9"/>
-      <c r="BJ52" s="9"/>
-      <c r="BK52" s="9"/>
-      <c r="BL52" s="9"/>
-      <c r="BM52" s="9"/>
-    </row>
-    <row r="53" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="13"/>
-      <c r="B53" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="24">
-        <v>1</v>
-      </c>
-      <c r="E53" s="50">
-        <v>0</v>
-      </c>
-      <c r="F53" s="18">
-        <f t="shared" ref="F53:F54" si="19">G52+1</f>
-        <v>44506</v>
-      </c>
-      <c r="G53" s="18">
-        <f t="shared" ref="G53:G54" si="20">F53+(D53-1)</f>
-        <v>44506</v>
-      </c>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="9"/>
-      <c r="AC53" s="9"/>
-      <c r="AD53" s="9"/>
-      <c r="AE53" s="9"/>
-      <c r="AF53" s="9"/>
-      <c r="AG53" s="9"/>
-      <c r="AH53" s="9"/>
-      <c r="AI53" s="9"/>
-      <c r="AJ53" s="9"/>
-      <c r="AK53" s="9"/>
-      <c r="AL53" s="9"/>
-      <c r="AM53" s="9"/>
-      <c r="AN53" s="9"/>
-      <c r="AO53" s="9"/>
-      <c r="AP53" s="9"/>
-      <c r="AQ53" s="9"/>
-      <c r="AR53" s="9"/>
-      <c r="AS53" s="9"/>
-      <c r="AT53" s="9"/>
-      <c r="AU53" s="9"/>
-      <c r="AV53" s="9"/>
-      <c r="AW53" s="9"/>
-      <c r="AX53" s="9"/>
-      <c r="AY53" s="9"/>
-      <c r="AZ53" s="9"/>
-      <c r="BA53" s="9"/>
-      <c r="BB53" s="9"/>
-      <c r="BC53" s="9"/>
-      <c r="BD53" s="9"/>
-      <c r="BE53" s="9"/>
-      <c r="BF53" s="9"/>
-      <c r="BG53" s="9"/>
-      <c r="BH53" s="9"/>
-      <c r="BI53" s="9"/>
-      <c r="BJ53" s="9"/>
-      <c r="BK53" s="9"/>
-      <c r="BL53" s="9"/>
-      <c r="BM53" s="9"/>
-    </row>
-    <row r="54" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="13"/>
-      <c r="B54" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="24">
-        <v>1</v>
-      </c>
-      <c r="E54" s="50">
-        <v>0</v>
-      </c>
-      <c r="F54" s="18">
-        <f t="shared" si="19"/>
-        <v>44507</v>
-      </c>
-      <c r="G54" s="18">
-        <f t="shared" si="20"/>
-        <v>44507</v>
-      </c>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
-      <c r="AB54" s="9"/>
-      <c r="AC54" s="9"/>
-      <c r="AD54" s="9"/>
-      <c r="AE54" s="9"/>
-      <c r="AF54" s="9"/>
-      <c r="AG54" s="9"/>
-      <c r="AH54" s="9"/>
-      <c r="AI54" s="9"/>
-      <c r="AJ54" s="9"/>
-      <c r="AK54" s="9"/>
-      <c r="AL54" s="9"/>
-      <c r="AM54" s="9"/>
-      <c r="AN54" s="9"/>
-      <c r="AO54" s="9"/>
-      <c r="AP54" s="9"/>
-      <c r="AQ54" s="9"/>
-      <c r="AR54" s="9"/>
-      <c r="AS54" s="9"/>
-      <c r="AT54" s="9"/>
-      <c r="AU54" s="9"/>
-      <c r="AV54" s="9"/>
-      <c r="AW54" s="9"/>
-      <c r="AX54" s="9"/>
-      <c r="AY54" s="9"/>
-      <c r="AZ54" s="9"/>
-      <c r="BA54" s="9"/>
-      <c r="BB54" s="9"/>
-      <c r="BC54" s="9"/>
-      <c r="BD54" s="9"/>
-      <c r="BE54" s="9"/>
-      <c r="BF54" s="9"/>
-      <c r="BG54" s="9"/>
-      <c r="BH54" s="9"/>
-      <c r="BI54" s="9"/>
-      <c r="BJ54" s="9"/>
-      <c r="BK54" s="9"/>
-      <c r="BL54" s="9"/>
-      <c r="BM54" s="9"/>
-    </row>
-    <row r="55" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
-      <c r="AB55" s="9"/>
-      <c r="AC55" s="9"/>
-      <c r="AD55" s="9"/>
-      <c r="AE55" s="9"/>
-      <c r="AF55" s="9"/>
-      <c r="AG55" s="9"/>
-      <c r="AH55" s="9"/>
-      <c r="AI55" s="9"/>
-      <c r="AJ55" s="9"/>
-      <c r="AK55" s="9"/>
-      <c r="AL55" s="9"/>
-      <c r="AM55" s="9"/>
-      <c r="AN55" s="9"/>
-      <c r="AO55" s="9"/>
-      <c r="AP55" s="9"/>
-      <c r="AQ55" s="9"/>
-      <c r="AR55" s="9"/>
-      <c r="AS55" s="9"/>
-      <c r="AT55" s="9"/>
-      <c r="AU55" s="9"/>
-      <c r="AV55" s="9"/>
-      <c r="AW55" s="9"/>
-      <c r="AX55" s="9"/>
-      <c r="AY55" s="9"/>
-      <c r="AZ55" s="9"/>
-      <c r="BA55" s="9"/>
-      <c r="BB55" s="9"/>
-      <c r="BC55" s="9"/>
-      <c r="BD55" s="9"/>
-      <c r="BE55" s="9"/>
-      <c r="BF55" s="9"/>
-      <c r="BG55" s="9"/>
-      <c r="BH55" s="9"/>
-      <c r="BI55" s="9"/>
-      <c r="BJ55" s="9"/>
-      <c r="BK55" s="9"/>
-      <c r="BL55" s="9"/>
-      <c r="BM55" s="9"/>
-    </row>
-    <row r="56" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="12"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="9"/>
-      <c r="AC56" s="9"/>
-      <c r="AD56" s="9"/>
-      <c r="AE56" s="9"/>
-      <c r="AF56" s="9"/>
-      <c r="AG56" s="9"/>
-      <c r="AH56" s="9"/>
-      <c r="AI56" s="9"/>
-      <c r="AJ56" s="9"/>
-      <c r="AK56" s="9"/>
-      <c r="AL56" s="9"/>
-      <c r="AM56" s="9"/>
-      <c r="AN56" s="9"/>
-      <c r="AO56" s="9"/>
-      <c r="AP56" s="9"/>
-      <c r="AQ56" s="9"/>
-      <c r="AR56" s="9"/>
-      <c r="AS56" s="9"/>
-      <c r="AT56" s="9"/>
-      <c r="AU56" s="9"/>
-      <c r="AV56" s="9"/>
-      <c r="AW56" s="9"/>
-      <c r="AX56" s="9"/>
-      <c r="AY56" s="9"/>
-      <c r="AZ56" s="9"/>
-      <c r="BA56" s="9"/>
-      <c r="BB56" s="9"/>
-      <c r="BC56" s="9"/>
-      <c r="BD56" s="9"/>
-      <c r="BE56" s="9"/>
-      <c r="BF56" s="9"/>
-      <c r="BG56" s="9"/>
-      <c r="BH56" s="9"/>
-      <c r="BI56" s="9"/>
-      <c r="BJ56" s="9"/>
-      <c r="BK56" s="9"/>
-      <c r="BL56" s="9"/>
-      <c r="BM56" s="9"/>
-    </row>
-    <row r="57" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="12"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
-      <c r="AB57" s="9"/>
-      <c r="AC57" s="9"/>
-      <c r="AD57" s="9"/>
-      <c r="AE57" s="9"/>
-      <c r="AF57" s="9"/>
-      <c r="AG57" s="9"/>
-      <c r="AH57" s="9"/>
-      <c r="AI57" s="9"/>
-      <c r="AJ57" s="9"/>
-      <c r="AK57" s="9"/>
-      <c r="AL57" s="9"/>
-      <c r="AM57" s="9"/>
-      <c r="AN57" s="9"/>
-      <c r="AO57" s="9"/>
-      <c r="AP57" s="9"/>
-      <c r="AQ57" s="9"/>
-      <c r="AR57" s="9"/>
-      <c r="AS57" s="9"/>
-      <c r="AT57" s="9"/>
-      <c r="AU57" s="9"/>
-      <c r="AV57" s="9"/>
-      <c r="AW57" s="9"/>
-      <c r="AX57" s="9"/>
-      <c r="AY57" s="9"/>
-      <c r="AZ57" s="9"/>
-      <c r="BA57" s="9"/>
-      <c r="BB57" s="9"/>
-      <c r="BC57" s="9"/>
-      <c r="BD57" s="9"/>
-      <c r="BE57" s="9"/>
-      <c r="BF57" s="9"/>
-      <c r="BG57" s="9"/>
-      <c r="BH57" s="9"/>
-      <c r="BI57" s="9"/>
-      <c r="BJ57" s="9"/>
-      <c r="BK57" s="9"/>
-      <c r="BL57" s="9"/>
-      <c r="BM57" s="9"/>
-    </row>
-    <row r="58" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="11"/>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="11"/>
-      <c r="AE58" s="11"/>
-      <c r="AF58" s="11"/>
-      <c r="AG58" s="11"/>
-      <c r="AH58" s="11"/>
-      <c r="AI58" s="11"/>
-      <c r="AJ58" s="11"/>
-      <c r="AK58" s="11"/>
-      <c r="AL58" s="11"/>
-      <c r="AM58" s="11"/>
-      <c r="AN58" s="11"/>
-      <c r="AO58" s="11"/>
-      <c r="AP58" s="11"/>
-      <c r="AQ58" s="11"/>
-      <c r="AR58" s="11"/>
-      <c r="AS58" s="11"/>
-      <c r="AT58" s="11"/>
-      <c r="AU58" s="11"/>
-      <c r="AV58" s="11"/>
-      <c r="AW58" s="11"/>
-      <c r="AX58" s="11"/>
-      <c r="AY58" s="11"/>
-      <c r="AZ58" s="11"/>
-      <c r="BA58" s="11"/>
-      <c r="BB58" s="11"/>
-      <c r="BC58" s="11"/>
-      <c r="BD58" s="11"/>
-      <c r="BE58" s="11"/>
-      <c r="BF58" s="11"/>
-      <c r="BG58" s="11"/>
-      <c r="BH58" s="11"/>
-      <c r="BI58" s="11"/>
-      <c r="BJ58" s="11"/>
-      <c r="BK58" s="11"/>
-      <c r="BL58" s="11"/>
-      <c r="BM58" s="11"/>
-    </row>
-    <row r="59" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="G60" s="68"/>
-    </row>
-    <row r="61" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="11"/>
+      <c r="AZ33" s="11"/>
+      <c r="BA33" s="11"/>
+      <c r="BB33" s="11"/>
+      <c r="BC33" s="11"/>
+      <c r="BD33" s="11"/>
+      <c r="BE33" s="11"/>
+      <c r="BF33" s="11"/>
+      <c r="BG33" s="11"/>
+      <c r="BH33" s="11"/>
+      <c r="BI33" s="11"/>
+      <c r="BJ33" s="11"/>
+      <c r="BK33" s="11"/>
+      <c r="BL33" s="11"/>
+      <c r="BM33" s="11"/>
+      <c r="BN33" s="11"/>
+      <c r="BO33" s="11"/>
+    </row>
+    <row r="34" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+    </row>
+    <row r="36" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="AZ4:BF4"/>
-    <mergeCell ref="BG4:BM4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="X4:AD4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BI4:BO4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="AG4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AU4:BA4"/>
   </mergeCells>
   <phoneticPr fontId="37"/>
-  <conditionalFormatting sqref="E7:E38 E40:E44 E58">
+  <conditionalFormatting sqref="E7:E23 E33">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8090,88 +6033,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:BM44 J5:BM38 J46:BM48 J58:BM58">
-    <cfRule type="expression" dxfId="18" priority="25">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+  <conditionalFormatting sqref="L33:BO33 L5:BO23">
+    <cfRule type="expression" dxfId="12" priority="25">
+      <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:BM44 J7:BM38 J46:BM48 J58:BM58">
-    <cfRule type="expression" dxfId="17" priority="23">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+  <conditionalFormatting sqref="L33:BO33 L7:BO23">
+    <cfRule type="expression" dxfId="11" priority="23">
+      <formula>AND(タスク_開始&lt;=L$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=L$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=L$5,タスク_開始&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E48">
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E54DEDD5-7C16-4C58-9DCB-DCEED2EF2101}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E44">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FE8E18D5-EE5C-4BF5-961E-C65AEAF035C4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:BM44">
-    <cfRule type="expression" dxfId="15" priority="19">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:BM44">
-    <cfRule type="expression" dxfId="14" priority="17">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="18" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E48">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5F489D86-73E6-4E45-8B86-D50524B852FB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45:BM48">
-    <cfRule type="expression" dxfId="12" priority="15">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45:BM48">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
+  <conditionalFormatting sqref="E24">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8185,20 +6060,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49:BM54">
+  <conditionalFormatting sqref="L24:BO29">
     <cfRule type="expression" dxfId="9" priority="11">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+      <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49:BM54">
+  <conditionalFormatting sqref="L24:BO29">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=L$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=L$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+      <formula>AND(タスク_終了&gt;=L$5,タスク_開始&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:E52">
+  <conditionalFormatting sqref="E25:E27">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8212,7 +6087,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55:E57">
+  <conditionalFormatting sqref="E30:E32">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8226,20 +6101,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55:BM57">
+  <conditionalFormatting sqref="L30:BO32">
     <cfRule type="expression" dxfId="6" priority="6">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+      <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55:BM57">
+  <conditionalFormatting sqref="L30:BO32">
     <cfRule type="expression" dxfId="5" priority="4">
-      <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
+      <formula>AND(タスク_開始&lt;=L$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=L$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
+      <formula>AND(タスク_終了&gt;=L$5,タスク_開始&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E28">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8253,7 +6128,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+  <conditionalFormatting sqref="E29">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8294,52 +6169,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E38 E40:E44 E58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E54DEDD5-7C16-4C58-9DCB-DCEED2EF2101}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E46:E48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FE8E18D5-EE5C-4BF5-961E-C65AEAF035C4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E39:E44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5F489D86-73E6-4E45-8B86-D50524B852FB}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E45:E48</xm:sqref>
+          <xm:sqref>E7:E23 E33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{819188CF-7981-4056-A3BB-BD907EC72523}">
@@ -8354,7 +6184,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E49</xm:sqref>
+          <xm:sqref>E24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FE970A50-4160-436A-8671-B60272A024C5}">
@@ -8369,7 +6199,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E50:E52</xm:sqref>
+          <xm:sqref>E25:E27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A82B6245-7A7D-448E-A243-1FFEB335EC45}">
@@ -8384,7 +6214,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E55:E57</xm:sqref>
+          <xm:sqref>E30:E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E78DBA92-3074-44FB-B6FF-9B133C91B2E3}">
@@ -8399,7 +6229,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E53</xm:sqref>
+          <xm:sqref>E28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0C614430-7ACE-4940-B3D0-E1BDA451A6B4}">
@@ -8414,7 +6244,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E54</xm:sqref>
+          <xm:sqref>E29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8447,7 +6277,7 @@
     <row r="2" spans="1:31" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:31" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="103" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B3" s="110" t="s">
         <v>55</v>
@@ -8545,7 +6375,7 @@
         <v>44468</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C4" s="108">
         <v>0.75</v>
@@ -8627,7 +6457,7 @@
         <v>44470</v>
       </c>
       <c r="B6" s="113" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C6" s="109">
         <v>0.77083333333333337</v>
@@ -8668,7 +6498,7 @@
         <v>44471</v>
       </c>
       <c r="B7" s="113" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C7" s="109">
         <v>0.83333333333333337</v>
@@ -9424,7 +7254,7 @@
       <c r="D6" s="100"/>
       <c r="E6" s="100"/>
       <c r="F6" s="118" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G6" s="100"/>
       <c r="H6" s="100"/>
@@ -9439,7 +7269,7 @@
       <c r="D7" s="100"/>
       <c r="E7" s="100"/>
       <c r="F7" s="118" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G7" s="100"/>
       <c r="H7" s="100"/>
@@ -9454,7 +7284,7 @@
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
       <c r="F8" s="118" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G8" s="100"/>
       <c r="H8" s="100"/>
@@ -9469,7 +7299,7 @@
       <c r="D9" s="100"/>
       <c r="E9" s="100"/>
       <c r="F9" s="118" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G9" s="100"/>
       <c r="H9" s="100"/>
@@ -9484,7 +7314,7 @@
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="119" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G10" s="100"/>
       <c r="H10" s="100"/>
@@ -9499,7 +7329,7 @@
       <c r="D11" s="100"/>
       <c r="E11" s="100"/>
       <c r="F11" s="119" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G11" s="100"/>
       <c r="H11" s="100"/>
@@ -9514,7 +7344,7 @@
       <c r="D12" s="100"/>
       <c r="E12" s="100"/>
       <c r="F12" s="119" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
@@ -9529,7 +7359,7 @@
       <c r="D13" s="100"/>
       <c r="E13" s="100"/>
       <c r="F13" s="119" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G13" s="100"/>
       <c r="H13" s="100"/>
@@ -9570,7 +7400,7 @@
       <c r="D16" s="100"/>
       <c r="E16" s="100"/>
       <c r="F16" s="100" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G16" s="100"/>
       <c r="H16" s="100"/>
@@ -9585,7 +7415,7 @@
       <c r="D17" s="100"/>
       <c r="E17" s="100"/>
       <c r="F17" s="100" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G17" s="100"/>
       <c r="H17" s="100"/>
@@ -9600,7 +7430,7 @@
       <c r="D18" s="100"/>
       <c r="E18" s="100"/>
       <c r="F18" s="100" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G18" s="100"/>
       <c r="H18" s="100"/>
@@ -9615,7 +7445,7 @@
       <c r="D19" s="100"/>
       <c r="E19" s="100"/>
       <c r="F19" s="100" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G19" s="100"/>
       <c r="H19" s="100"/>
@@ -9630,7 +7460,7 @@
       <c r="D20" s="100"/>
       <c r="E20" s="100"/>
       <c r="F20" s="100" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G20" s="100"/>
       <c r="H20" s="100"/>
@@ -9645,7 +7475,7 @@
       <c r="D21" s="100"/>
       <c r="E21" s="100"/>
       <c r="F21" s="100" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
@@ -9660,7 +7490,7 @@
       <c r="D22" s="100"/>
       <c r="E22" s="100"/>
       <c r="F22" s="100" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
@@ -9675,7 +7505,7 @@
       <c r="D23" s="100"/>
       <c r="E23" s="100"/>
       <c r="F23" s="100" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
@@ -9690,7 +7520,7 @@
       <c r="D24" s="100"/>
       <c r="E24" s="100"/>
       <c r="F24" s="100" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G24" s="100"/>
       <c r="H24" s="100"/>
@@ -9705,7 +7535,7 @@
       <c r="D25" s="100"/>
       <c r="E25" s="100"/>
       <c r="F25" s="100" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G25" s="100"/>
       <c r="H25" s="100"/>
@@ -9719,10 +7549,10 @@
       <c r="C26" s="100"/>
       <c r="D26" s="100"/>
       <c r="E26" s="100" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F26" s="100" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G26" s="100"/>
       <c r="H26" s="100"/>
@@ -9736,10 +7566,10 @@
       <c r="C27" s="100"/>
       <c r="D27" s="100"/>
       <c r="E27" s="100" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F27" s="100" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G27" s="100"/>
       <c r="H27" s="100"/>
@@ -9753,10 +7583,10 @@
       <c r="C28" s="100"/>
       <c r="D28" s="100"/>
       <c r="E28" s="100" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F28" s="100" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G28" s="100"/>
       <c r="H28" s="100"/>
@@ -9770,10 +7600,10 @@
       <c r="C29" s="100"/>
       <c r="D29" s="100"/>
       <c r="E29" s="100" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F29" s="100" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G29" s="100"/>
       <c r="H29" s="100"/>
@@ -9787,13 +7617,13 @@
       <c r="C30" s="100"/>
       <c r="D30" s="100"/>
       <c r="E30" s="100" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F30" s="100" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G30" s="100" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H30" s="100"/>
       <c r="I30" s="100"/>
@@ -9806,13 +7636,13 @@
       <c r="C31" s="100"/>
       <c r="D31" s="100"/>
       <c r="E31" s="100" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F31" s="100" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G31" s="100" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H31" s="100"/>
       <c r="I31" s="100"/>
@@ -9825,13 +7655,13 @@
       <c r="C32" s="100"/>
       <c r="D32" s="100"/>
       <c r="E32" s="100" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F32" s="100" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G32" s="100" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H32" s="100"/>
       <c r="I32" s="100"/>
@@ -9844,13 +7674,13 @@
       <c r="C33" s="100"/>
       <c r="D33" s="100"/>
       <c r="E33" s="100" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F33" s="100" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G33" s="100" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H33" s="100"/>
       <c r="I33" s="100"/>
@@ -9863,13 +7693,13 @@
       <c r="C34" s="100"/>
       <c r="D34" s="100"/>
       <c r="E34" s="100" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F34" s="100" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G34" s="100" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H34" s="100"/>
       <c r="I34" s="100"/>
@@ -10183,24 +8013,24 @@
       <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135">
+      <c r="D3" s="135"/>
+      <c r="E3" s="133">
         <f ca="1">TODAY()</f>
-        <v>44472</v>
-      </c>
-      <c r="F3" s="135"/>
+        <v>44475</v>
+      </c>
+      <c r="F3" s="133"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="134"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
@@ -10923,11 +8753,11 @@
       </c>
       <c r="E9" s="18">
         <f ca="1">プロジェクト_開始</f>
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="F9" s="18">
         <f ca="1">E9+3</f>
-        <v>44475</v>
+        <v>44478</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="49">
@@ -11004,11 +8834,11 @@
       </c>
       <c r="E10" s="18">
         <f ca="1">F9</f>
-        <v>44475</v>
+        <v>44478</v>
       </c>
       <c r="F10" s="18">
         <f ca="1">E10+2</f>
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="49">
@@ -11083,11 +8913,11 @@
       </c>
       <c r="E11" s="18">
         <f ca="1">F10</f>
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="F11" s="18">
         <f ca="1">E11+4</f>
-        <v>44481</v>
+        <v>44484</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="49">
@@ -11162,11 +8992,11 @@
       </c>
       <c r="E12" s="18">
         <f ca="1">F11</f>
-        <v>44481</v>
+        <v>44484</v>
       </c>
       <c r="F12" s="18">
         <f ca="1">E12+5</f>
-        <v>44486</v>
+        <v>44489</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="49">
@@ -11239,11 +9069,11 @@
       <c r="D13" s="50"/>
       <c r="E13" s="18">
         <f ca="1">E10+1</f>
-        <v>44476</v>
+        <v>44479</v>
       </c>
       <c r="F13" s="18">
         <f ca="1">E13+2</f>
-        <v>44478</v>
+        <v>44481</v>
       </c>
       <c r="G13" s="49"/>
       <c r="H13" s="49">
@@ -11391,11 +9221,11 @@
       </c>
       <c r="E15" s="19">
         <f ca="1">E13+1</f>
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="F15" s="19">
         <f ca="1">E15+4</f>
-        <v>44481</v>
+        <v>44484</v>
       </c>
       <c r="G15" s="49"/>
       <c r="H15" s="49">
@@ -11470,11 +9300,11 @@
       </c>
       <c r="E16" s="19">
         <f ca="1">E15+2</f>
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="F16" s="19">
         <f ca="1">E16+5</f>
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="49">
@@ -11547,11 +9377,11 @@
       <c r="D17" s="54"/>
       <c r="E17" s="19">
         <f ca="1">F16</f>
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="F17" s="19">
         <f ca="1">E17+3</f>
-        <v>44487</v>
+        <v>44490</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="49">
@@ -11624,11 +9454,11 @@
       <c r="D18" s="54"/>
       <c r="E18" s="19">
         <f ca="1">E17</f>
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="F18" s="19">
         <f ca="1">E18+2</f>
-        <v>44486</v>
+        <v>44489</v>
       </c>
       <c r="G18" s="49"/>
       <c r="H18" s="49">
@@ -11701,11 +9531,11 @@
       <c r="D19" s="54"/>
       <c r="E19" s="19">
         <f ca="1">E18</f>
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="F19" s="19">
         <f ca="1">E19+3</f>
-        <v>44487</v>
+        <v>44490</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="49">
@@ -11851,11 +9681,11 @@
       <c r="D21" s="58"/>
       <c r="E21" s="20">
         <f ca="1">E9+15</f>
-        <v>44487</v>
+        <v>44490</v>
       </c>
       <c r="F21" s="20">
         <f ca="1">E21+5</f>
-        <v>44492</v>
+        <v>44495</v>
       </c>
       <c r="G21" s="49"/>
       <c r="H21" s="49">
@@ -11928,11 +9758,11 @@
       <c r="D22" s="58"/>
       <c r="E22" s="20">
         <f ca="1">F21+1</f>
-        <v>44493</v>
+        <v>44496</v>
       </c>
       <c r="F22" s="20">
         <f ca="1">E22+4</f>
-        <v>44497</v>
+        <v>44500</v>
       </c>
       <c r="G22" s="49"/>
       <c r="H22" s="49">
@@ -12005,11 +9835,11 @@
       <c r="D23" s="58"/>
       <c r="E23" s="20">
         <f ca="1">E22+5</f>
-        <v>44498</v>
+        <v>44501</v>
       </c>
       <c r="F23" s="20">
         <f ca="1">E23+5</f>
-        <v>44503</v>
+        <v>44506</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="49">
@@ -12082,11 +9912,11 @@
       <c r="D24" s="58"/>
       <c r="E24" s="20">
         <f ca="1">F23+1</f>
-        <v>44504</v>
+        <v>44507</v>
       </c>
       <c r="F24" s="20">
         <f ca="1">E24+4</f>
-        <v>44508</v>
+        <v>44511</v>
       </c>
       <c r="G24" s="49"/>
       <c r="H24" s="49">
@@ -12159,11 +9989,11 @@
       <c r="D25" s="58"/>
       <c r="E25" s="20">
         <f ca="1">E23</f>
-        <v>44498</v>
+        <v>44501</v>
       </c>
       <c r="F25" s="20">
         <f ca="1">E25+4</f>
-        <v>44502</v>
+        <v>44505</v>
       </c>
       <c r="G25" s="49"/>
       <c r="H25" s="49">
@@ -12831,6 +10661,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -12838,11 +10673,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="37"/>
   <conditionalFormatting sqref="D7:D33">

--- a/docs/work_scheduler.xlsx
+++ b/docs/work_scheduler.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A89A83-D3D8-48BF-8637-94482D7A15CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B827312-3042-4FCF-AA64-E85F95CCABBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="115">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -567,9 +567,13 @@
     <phoneticPr fontId="37"/>
   </si>
   <si>
-    <t>レイヤ化アーキテクチャDDD準拠</t>
-    <rPh sb="14" eb="16">
-      <t>ジュンキョ</t>
+    <t>テーブルビュー</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>アーキテクチャモデル作成</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="37"/>
   </si>
@@ -2148,6 +2152,11 @@
     <xf numFmtId="56" fontId="39" fillId="0" borderId="32" xfId="54" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2157,23 +2166,18 @@
     <xf numFmtId="180" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="182" fontId="45" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -3082,11 +3086,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO36"/>
+  <dimension ref="A1:BO37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3141,8 +3145,8 @@
         <v>44468</v>
       </c>
       <c r="G3" s="120"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
     </row>
     <row r="4" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -3157,102 +3161,102 @@
         <v>1</v>
       </c>
       <c r="G4" s="123"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="L4" s="128">
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="L4" s="131">
         <f>L5</f>
         <v>44466</v>
       </c>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="128">
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="131">
         <f>S5</f>
         <v>44473</v>
       </c>
-      <c r="T4" s="129"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="129"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="128">
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="131">
         <f>Z5</f>
         <v>44480</v>
       </c>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="128">
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="131">
         <f>AG5</f>
         <v>44487</v>
       </c>
-      <c r="AH4" s="129"/>
-      <c r="AI4" s="129"/>
-      <c r="AJ4" s="129"/>
-      <c r="AK4" s="129"/>
-      <c r="AL4" s="129"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="128">
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="132"/>
+      <c r="AK4" s="132"/>
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="133"/>
+      <c r="AN4" s="131">
         <f>AN5</f>
         <v>44494</v>
       </c>
-      <c r="AO4" s="129"/>
-      <c r="AP4" s="129"/>
-      <c r="AQ4" s="129"/>
-      <c r="AR4" s="129"/>
-      <c r="AS4" s="129"/>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="128">
+      <c r="AO4" s="132"/>
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="132"/>
+      <c r="AR4" s="132"/>
+      <c r="AS4" s="132"/>
+      <c r="AT4" s="133"/>
+      <c r="AU4" s="131">
         <f>AU5</f>
         <v>44501</v>
       </c>
-      <c r="AV4" s="129"/>
-      <c r="AW4" s="129"/>
-      <c r="AX4" s="129"/>
-      <c r="AY4" s="129"/>
-      <c r="AZ4" s="129"/>
-      <c r="BA4" s="130"/>
-      <c r="BB4" s="128">
+      <c r="AV4" s="132"/>
+      <c r="AW4" s="132"/>
+      <c r="AX4" s="132"/>
+      <c r="AY4" s="132"/>
+      <c r="AZ4" s="132"/>
+      <c r="BA4" s="133"/>
+      <c r="BB4" s="131">
         <f>BB5</f>
         <v>44508</v>
       </c>
-      <c r="BC4" s="129"/>
-      <c r="BD4" s="129"/>
-      <c r="BE4" s="129"/>
-      <c r="BF4" s="129"/>
-      <c r="BG4" s="129"/>
-      <c r="BH4" s="130"/>
-      <c r="BI4" s="128">
+      <c r="BC4" s="132"/>
+      <c r="BD4" s="132"/>
+      <c r="BE4" s="132"/>
+      <c r="BF4" s="132"/>
+      <c r="BG4" s="132"/>
+      <c r="BH4" s="133"/>
+      <c r="BI4" s="131">
         <f>BI5</f>
         <v>44515</v>
       </c>
-      <c r="BJ4" s="129"/>
-      <c r="BK4" s="129"/>
-      <c r="BL4" s="129"/>
-      <c r="BM4" s="129"/>
-      <c r="BN4" s="129"/>
-      <c r="BO4" s="130"/>
+      <c r="BJ4" s="132"/>
+      <c r="BK4" s="132"/>
+      <c r="BL4" s="132"/>
+      <c r="BM4" s="132"/>
+      <c r="BN4" s="132"/>
+      <c r="BO4" s="133"/>
     </row>
     <row r="5" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
       <c r="L5" s="81">
         <f>プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+2+7*(週_表示-1)</f>
         <v>44466</v>
@@ -3819,7 +3823,7 @@
       <c r="I8" s="48"/>
       <c r="J8" s="49"/>
       <c r="K8" s="49" t="str">
-        <f t="shared" ref="K8:K33" si="4">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="K8:K34" si="4">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="L8" s="9"/>
@@ -4431,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" si="6"/>
@@ -4441,8 +4445,12 @@
         <f t="shared" si="5"/>
         <v>44474</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="H15" s="18">
+        <v>44479</v>
+      </c>
+      <c r="I15" s="18">
+        <v>44479</v>
+      </c>
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
       <c r="L15" s="9"/>
@@ -4957,7 +4965,9 @@
         <f t="shared" ref="G21" si="9">F21+(D21-1)</f>
         <v>44479</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="19">
+        <v>44479</v>
+      </c>
       <c r="I21" s="19"/>
       <c r="J21" s="49"/>
       <c r="K21" s="49"/>
@@ -5342,7 +5352,7 @@
     <row r="26" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="B26" s="32" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>53</v>
@@ -5351,17 +5361,19 @@
         <v>1</v>
       </c>
       <c r="E26" s="50">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F26" s="18">
-        <f t="shared" ref="F26:F27" si="10">G25+1</f>
+        <f>G25+1</f>
         <v>44482</v>
       </c>
       <c r="G26" s="18">
-        <f t="shared" ref="G26:G27" si="11">F26+(D26-1)</f>
+        <f t="shared" ref="G26" si="10">F26+(D26-1)</f>
         <v>44482</v>
       </c>
-      <c r="H26" s="18"/>
+      <c r="H26" s="18">
+        <v>44478</v>
+      </c>
       <c r="I26" s="18"/>
       <c r="J26" s="49"/>
       <c r="K26" s="49"/>
@@ -5425,7 +5437,7 @@
     <row r="27" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
       <c r="B27" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>53</v>
@@ -5437,11 +5449,11 @@
         <v>0</v>
       </c>
       <c r="F27" s="18">
-        <f t="shared" si="10"/>
+        <f>G26+1</f>
         <v>44483</v>
       </c>
       <c r="G27" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G27:G28" si="11">F27+(D27-1)</f>
         <v>44483</v>
       </c>
       <c r="H27" s="18"/>
@@ -5508,7 +5520,7 @@
     <row r="28" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>53</v>
@@ -5517,17 +5529,19 @@
         <v>1</v>
       </c>
       <c r="E28" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F28" s="18">
-        <f t="shared" ref="F28:F29" si="12">G27+1</f>
+        <f t="shared" ref="F28" si="12">G27+1</f>
         <v>44484</v>
       </c>
       <c r="G28" s="18">
-        <f t="shared" ref="G28:G31" si="13">F28+(D28-1)</f>
+        <f t="shared" si="11"/>
         <v>44484</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="18">
+        <v>44478</v>
+      </c>
       <c r="I28" s="18"/>
       <c r="J28" s="49"/>
       <c r="K28" s="49"/>
@@ -5591,7 +5605,7 @@
     <row r="29" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>53</v>
@@ -5600,17 +5614,19 @@
         <v>1</v>
       </c>
       <c r="E29" s="50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F29" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F29:F30" si="13">G28+1</f>
         <v>44485</v>
       </c>
       <c r="G29" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G29:G32" si="14">F29+(D29-1)</f>
         <v>44485</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="18">
+        <v>44478</v>
+      </c>
       <c r="I29" s="18"/>
       <c r="J29" s="49"/>
       <c r="K29" s="49"/>
@@ -5672,24 +5688,33 @@
       <c r="BO29" s="9"/>
     </row>
     <row r="30" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="18">
+        <f t="shared" si="13"/>
+        <v>44486</v>
+      </c>
+      <c r="G30" s="18">
+        <f t="shared" si="14"/>
+        <v>44486</v>
+      </c>
+      <c r="H30" s="18">
+        <v>44478</v>
+      </c>
+      <c r="I30" s="18"/>
       <c r="J30" s="49"/>
-      <c r="K30" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="K30" s="49"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -5748,33 +5773,23 @@
       <c r="BO30" s="9"/>
     </row>
     <row r="31" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="26">
-        <v>1</v>
-      </c>
-      <c r="E31" s="54">
-        <v>0</v>
-      </c>
-      <c r="F31" s="19">
-        <f>G29+1</f>
-        <v>44486</v>
-      </c>
-      <c r="G31" s="19">
-        <f t="shared" si="13"/>
-        <v>44486</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
+      <c r="A31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
       <c r="J31" s="49"/>
-      <c r="K31" s="49">
+      <c r="K31" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -5836,7 +5851,7 @@
     <row r="32" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>53</v>
@@ -5848,17 +5863,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="19">
-        <f>G31+1</f>
+        <f>G30+1</f>
         <v>44487</v>
       </c>
       <c r="G32" s="19">
-        <f t="shared" ref="G32" si="14">F32+(D32-1)</f>
+        <f t="shared" si="14"/>
         <v>44487</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
+      <c r="K32" s="49">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -5917,94 +5935,177 @@
       <c r="BO32" s="9"/>
     </row>
     <row r="33" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="26">
+        <v>1</v>
+      </c>
+      <c r="E33" s="54">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19">
+        <f>G32+1</f>
+        <v>44488</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" ref="G33" si="15">F33+(D33-1)</f>
+        <v>44488</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9"/>
+      <c r="AQ33" s="9"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="9"/>
+      <c r="AT33" s="9"/>
+      <c r="AU33" s="9"/>
+      <c r="AV33" s="9"/>
+      <c r="AW33" s="9"/>
+      <c r="AX33" s="9"/>
+      <c r="AY33" s="9"/>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="9"/>
+      <c r="BC33" s="9"/>
+      <c r="BD33" s="9"/>
+      <c r="BE33" s="9"/>
+      <c r="BF33" s="9"/>
+      <c r="BG33" s="9"/>
+      <c r="BH33" s="9"/>
+      <c r="BI33" s="9"/>
+      <c r="BJ33" s="9"/>
+      <c r="BK33" s="9"/>
+      <c r="BL33" s="9"/>
+      <c r="BM33" s="9"/>
+      <c r="BN33" s="9"/>
+      <c r="BO33" s="9"/>
+    </row>
+    <row r="34" spans="1:67" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="85" t="s">
+      <c r="B34" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67" t="str">
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="11"/>
-      <c r="AI33" s="11"/>
-      <c r="AJ33" s="11"/>
-      <c r="AK33" s="11"/>
-      <c r="AL33" s="11"/>
-      <c r="AM33" s="11"/>
-      <c r="AN33" s="11"/>
-      <c r="AO33" s="11"/>
-      <c r="AP33" s="11"/>
-      <c r="AQ33" s="11"/>
-      <c r="AR33" s="11"/>
-      <c r="AS33" s="11"/>
-      <c r="AT33" s="11"/>
-      <c r="AU33" s="11"/>
-      <c r="AV33" s="11"/>
-      <c r="AW33" s="11"/>
-      <c r="AX33" s="11"/>
-      <c r="AY33" s="11"/>
-      <c r="AZ33" s="11"/>
-      <c r="BA33" s="11"/>
-      <c r="BB33" s="11"/>
-      <c r="BC33" s="11"/>
-      <c r="BD33" s="11"/>
-      <c r="BE33" s="11"/>
-      <c r="BF33" s="11"/>
-      <c r="BG33" s="11"/>
-      <c r="BH33" s="11"/>
-      <c r="BI33" s="11"/>
-      <c r="BJ33" s="11"/>
-      <c r="BK33" s="11"/>
-      <c r="BL33" s="11"/>
-      <c r="BM33" s="11"/>
-      <c r="BN33" s="11"/>
-      <c r="BO33" s="11"/>
-    </row>
-    <row r="34" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J34" s="3"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="11"/>
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="11"/>
+      <c r="AU34" s="11"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="11"/>
+      <c r="AY34" s="11"/>
+      <c r="AZ34" s="11"/>
+      <c r="BA34" s="11"/>
+      <c r="BB34" s="11"/>
+      <c r="BC34" s="11"/>
+      <c r="BD34" s="11"/>
+      <c r="BE34" s="11"/>
+      <c r="BF34" s="11"/>
+      <c r="BG34" s="11"/>
+      <c r="BH34" s="11"/>
+      <c r="BI34" s="11"/>
+      <c r="BJ34" s="11"/>
+      <c r="BK34" s="11"/>
+      <c r="BL34" s="11"/>
+      <c r="BM34" s="11"/>
+      <c r="BN34" s="11"/>
+      <c r="BO34" s="11"/>
     </row>
     <row r="35" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+    </row>
+    <row r="37" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6019,8 +6120,8 @@
     <mergeCell ref="AU4:BA4"/>
   </mergeCells>
   <phoneticPr fontId="37"/>
-  <conditionalFormatting sqref="E7:E23 E33">
-    <cfRule type="dataBar" priority="22">
+  <conditionalFormatting sqref="E7:E23 E34">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6033,21 +6134,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33:BO33 L5:BO23">
-    <cfRule type="expression" dxfId="12" priority="25">
+  <conditionalFormatting sqref="L34:BO34 L5:BO23">
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33:BO33 L7:BO23">
-    <cfRule type="expression" dxfId="11" priority="23">
+  <conditionalFormatting sqref="L34:BO34 L7:BO23">
+    <cfRule type="expression" dxfId="11" priority="24">
       <formula>AND(タスク_開始&lt;=L$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=L$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="25" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=L$5,タスク_開始&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6060,21 +6161,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24:BO29">
-    <cfRule type="expression" dxfId="9" priority="11">
+  <conditionalFormatting sqref="L24:BO30">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24:BO29">
-    <cfRule type="expression" dxfId="8" priority="9">
+  <conditionalFormatting sqref="L24:BO30">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>AND(タスク_開始&lt;=L$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=L$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=L$5,タスク_開始&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E27">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="E27:E28 E25">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6087,8 +6188,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E32">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="E31:E33">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6101,21 +6202,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30:BO32">
-    <cfRule type="expression" dxfId="6" priority="6">
+  <conditionalFormatting sqref="L31:BO33">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30:BO32">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="L31:BO33">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>AND(タスク_開始&lt;=L$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=L$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=L$5,タスク_開始&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6128,7 +6229,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E30">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0C614430-7ACE-4940-B3D0-E1BDA451A6B4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6137,7 +6252,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0C614430-7ACE-4940-B3D0-E1BDA451A6B4}</x14:id>
+          <x14:id>{CA4D730C-75DB-4242-93EF-5EB8F48E9706}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6169,7 +6284,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E23 E33</xm:sqref>
+          <xm:sqref>E7:E23 E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{819188CF-7981-4056-A3BB-BD907EC72523}">
@@ -6199,7 +6314,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E25:E27</xm:sqref>
+          <xm:sqref>E27:E28 E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A82B6245-7A7D-448E-A243-1FFEB335EC45}">
@@ -6214,7 +6329,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E30:E32</xm:sqref>
+          <xm:sqref>E31:E33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E78DBA92-3074-44FB-B6FF-9B133C91B2E3}">
@@ -6229,7 +6344,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E28</xm:sqref>
+          <xm:sqref>E29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0C614430-7ACE-4940-B3D0-E1BDA451A6B4}">
@@ -6244,7 +6359,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E29</xm:sqref>
+          <xm:sqref>E30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CA4D730C-75DB-4242-93EF-5EB8F48E9706}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7179,10 +7309,10 @@
       <c r="B2" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="132">
+      <c r="C2" s="134">
         <v>44466</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="95" t="s">
         <v>61</v>
       </c>
@@ -8013,341 +8143,341 @@
       <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="135"/>
-      <c r="E3" s="133">
+      <c r="D3" s="136"/>
+      <c r="E3" s="137">
         <f ca="1">TODAY()</f>
-        <v>44475</v>
-      </c>
-      <c r="F3" s="133"/>
+        <v>44479</v>
+      </c>
+      <c r="F3" s="137"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="128">
+      <c r="I4" s="131">
         <f ca="1">I5</f>
-        <v>44473</v>
-      </c>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="128">
+        <v>44480</v>
+      </c>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="131">
         <f ca="1">P5</f>
-        <v>44480</v>
-      </c>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="128">
+        <v>44487</v>
+      </c>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="131">
         <f ca="1">W5</f>
-        <v>44487</v>
-      </c>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="130"/>
-      <c r="AD4" s="128">
+        <v>44494</v>
+      </c>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="131">
         <f ca="1">AD5</f>
-        <v>44494</v>
-      </c>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="129"/>
-      <c r="AH4" s="129"/>
-      <c r="AI4" s="129"/>
-      <c r="AJ4" s="130"/>
-      <c r="AK4" s="128">
+        <v>44501</v>
+      </c>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="132"/>
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="133"/>
+      <c r="AK4" s="131">
         <f ca="1">AK5</f>
-        <v>44501</v>
-      </c>
-      <c r="AL4" s="129"/>
-      <c r="AM4" s="129"/>
-      <c r="AN4" s="129"/>
-      <c r="AO4" s="129"/>
-      <c r="AP4" s="129"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="128">
+        <v>44508</v>
+      </c>
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="132"/>
+      <c r="AN4" s="132"/>
+      <c r="AO4" s="132"/>
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="133"/>
+      <c r="AR4" s="131">
         <f ca="1">AR5</f>
-        <v>44508</v>
-      </c>
-      <c r="AS4" s="129"/>
-      <c r="AT4" s="129"/>
-      <c r="AU4" s="129"/>
-      <c r="AV4" s="129"/>
-      <c r="AW4" s="129"/>
-      <c r="AX4" s="130"/>
-      <c r="AY4" s="128">
+        <v>44515</v>
+      </c>
+      <c r="AS4" s="132"/>
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="132"/>
+      <c r="AW4" s="132"/>
+      <c r="AX4" s="133"/>
+      <c r="AY4" s="131">
         <f ca="1">AY5</f>
-        <v>44515</v>
-      </c>
-      <c r="AZ4" s="129"/>
-      <c r="BA4" s="129"/>
-      <c r="BB4" s="129"/>
-      <c r="BC4" s="129"/>
-      <c r="BD4" s="129"/>
-      <c r="BE4" s="130"/>
-      <c r="BF4" s="128">
+        <v>44522</v>
+      </c>
+      <c r="AZ4" s="132"/>
+      <c r="BA4" s="132"/>
+      <c r="BB4" s="132"/>
+      <c r="BC4" s="132"/>
+      <c r="BD4" s="132"/>
+      <c r="BE4" s="133"/>
+      <c r="BF4" s="131">
         <f ca="1">BF5</f>
-        <v>44522</v>
-      </c>
-      <c r="BG4" s="129"/>
-      <c r="BH4" s="129"/>
-      <c r="BI4" s="129"/>
-      <c r="BJ4" s="129"/>
-      <c r="BK4" s="129"/>
-      <c r="BL4" s="130"/>
+        <v>44529</v>
+      </c>
+      <c r="BG4" s="132"/>
+      <c r="BH4" s="132"/>
+      <c r="BI4" s="132"/>
+      <c r="BJ4" s="132"/>
+      <c r="BK4" s="132"/>
+      <c r="BL4" s="133"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
       <c r="I5" s="81">
         <f ca="1">プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+2+7*(週_表示-1)</f>
-        <v>44473</v>
+        <v>44480</v>
       </c>
       <c r="J5" s="82">
         <f ca="1">I5+1</f>
-        <v>44474</v>
+        <v>44481</v>
       </c>
       <c r="K5" s="82">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="L5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44476</v>
+        <v>44483</v>
       </c>
       <c r="M5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44477</v>
+        <v>44484</v>
       </c>
       <c r="N5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44478</v>
+        <v>44485</v>
       </c>
       <c r="O5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44479</v>
+        <v>44486</v>
       </c>
       <c r="P5" s="81">
         <f ca="1">O5+1</f>
-        <v>44480</v>
+        <v>44487</v>
       </c>
       <c r="Q5" s="82">
         <f ca="1">P5+1</f>
-        <v>44481</v>
+        <v>44488</v>
       </c>
       <c r="R5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="S5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="T5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44484</v>
+        <v>44491</v>
       </c>
       <c r="U5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44485</v>
+        <v>44492</v>
       </c>
       <c r="V5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44486</v>
+        <v>44493</v>
       </c>
       <c r="W5" s="81">
         <f ca="1">V5+1</f>
-        <v>44487</v>
+        <v>44494</v>
       </c>
       <c r="X5" s="82">
         <f ca="1">W5+1</f>
-        <v>44488</v>
+        <v>44495</v>
       </c>
       <c r="Y5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="Z5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44490</v>
+        <v>44497</v>
       </c>
       <c r="AA5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44491</v>
+        <v>44498</v>
       </c>
       <c r="AB5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44492</v>
+        <v>44499</v>
       </c>
       <c r="AC5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44493</v>
+        <v>44500</v>
       </c>
       <c r="AD5" s="81">
         <f ca="1">AC5+1</f>
-        <v>44494</v>
+        <v>44501</v>
       </c>
       <c r="AE5" s="82">
         <f ca="1">AD5+1</f>
-        <v>44495</v>
+        <v>44502</v>
       </c>
       <c r="AF5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="AG5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44497</v>
+        <v>44504</v>
       </c>
       <c r="AH5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44498</v>
+        <v>44505</v>
       </c>
       <c r="AI5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44499</v>
+        <v>44506</v>
       </c>
       <c r="AJ5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44500</v>
+        <v>44507</v>
       </c>
       <c r="AK5" s="81">
         <f ca="1">AJ5+1</f>
-        <v>44501</v>
+        <v>44508</v>
       </c>
       <c r="AL5" s="82">
         <f ca="1">AK5+1</f>
-        <v>44502</v>
+        <v>44509</v>
       </c>
       <c r="AM5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="AN5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44511</v>
       </c>
       <c r="AO5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44505</v>
+        <v>44512</v>
       </c>
       <c r="AP5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44506</v>
+        <v>44513</v>
       </c>
       <c r="AQ5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44507</v>
+        <v>44514</v>
       </c>
       <c r="AR5" s="81">
         <f ca="1">AQ5+1</f>
-        <v>44508</v>
+        <v>44515</v>
       </c>
       <c r="AS5" s="82">
         <f ca="1">AR5+1</f>
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="AT5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="AU5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44511</v>
+        <v>44518</v>
       </c>
       <c r="AV5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44512</v>
+        <v>44519</v>
       </c>
       <c r="AW5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="AX5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44514</v>
+        <v>44521</v>
       </c>
       <c r="AY5" s="81">
         <f ca="1">AX5+1</f>
-        <v>44515</v>
+        <v>44522</v>
       </c>
       <c r="AZ5" s="82">
         <f ca="1">AY5+1</f>
-        <v>44516</v>
+        <v>44523</v>
       </c>
       <c r="BA5" s="82">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="BB5" s="82">
         <f t="shared" ca="1" si="1"/>
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="BC5" s="82">
         <f t="shared" ca="1" si="1"/>
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="BD5" s="82">
         <f t="shared" ca="1" si="1"/>
-        <v>44520</v>
+        <v>44527</v>
       </c>
       <c r="BE5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44521</v>
+        <v>44528</v>
       </c>
       <c r="BF5" s="81">
         <f ca="1">BE5+1</f>
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="BG5" s="82">
         <f ca="1">BF5+1</f>
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="BH5" s="82">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="BI5" s="82">
         <f t="shared" ca="1" si="2"/>
-        <v>44525</v>
+        <v>44532</v>
       </c>
       <c r="BJ5" s="82">
         <f t="shared" ca="1" si="2"/>
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="BK5" s="82">
         <f t="shared" ca="1" si="2"/>
-        <v>44527</v>
+        <v>44534</v>
       </c>
       <c r="BL5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>44528</v>
+        <v>44535</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8753,11 +8883,11 @@
       </c>
       <c r="E9" s="18">
         <f ca="1">プロジェクト_開始</f>
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="F9" s="18">
         <f ca="1">E9+3</f>
-        <v>44478</v>
+        <v>44482</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="49">
@@ -8834,11 +8964,11 @@
       </c>
       <c r="E10" s="18">
         <f ca="1">F9</f>
-        <v>44478</v>
+        <v>44482</v>
       </c>
       <c r="F10" s="18">
         <f ca="1">E10+2</f>
-        <v>44480</v>
+        <v>44484</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="49">
@@ -8913,11 +9043,11 @@
       </c>
       <c r="E11" s="18">
         <f ca="1">F10</f>
-        <v>44480</v>
+        <v>44484</v>
       </c>
       <c r="F11" s="18">
         <f ca="1">E11+4</f>
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="49">
@@ -8992,11 +9122,11 @@
       </c>
       <c r="E12" s="18">
         <f ca="1">F11</f>
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="F12" s="18">
         <f ca="1">E12+5</f>
-        <v>44489</v>
+        <v>44493</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="49">
@@ -9069,11 +9199,11 @@
       <c r="D13" s="50"/>
       <c r="E13" s="18">
         <f ca="1">E10+1</f>
-        <v>44479</v>
+        <v>44483</v>
       </c>
       <c r="F13" s="18">
         <f ca="1">E13+2</f>
-        <v>44481</v>
+        <v>44485</v>
       </c>
       <c r="G13" s="49"/>
       <c r="H13" s="49">
@@ -9221,11 +9351,11 @@
       </c>
       <c r="E15" s="19">
         <f ca="1">E13+1</f>
-        <v>44480</v>
+        <v>44484</v>
       </c>
       <c r="F15" s="19">
         <f ca="1">E15+4</f>
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="G15" s="49"/>
       <c r="H15" s="49">
@@ -9300,11 +9430,11 @@
       </c>
       <c r="E16" s="19">
         <f ca="1">E15+2</f>
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="F16" s="19">
         <f ca="1">E16+5</f>
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="49">
@@ -9377,11 +9507,11 @@
       <c r="D17" s="54"/>
       <c r="E17" s="19">
         <f ca="1">F16</f>
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="F17" s="19">
         <f ca="1">E17+3</f>
-        <v>44490</v>
+        <v>44494</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="49">
@@ -9454,11 +9584,11 @@
       <c r="D18" s="54"/>
       <c r="E18" s="19">
         <f ca="1">E17</f>
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="F18" s="19">
         <f ca="1">E18+2</f>
-        <v>44489</v>
+        <v>44493</v>
       </c>
       <c r="G18" s="49"/>
       <c r="H18" s="49">
@@ -9531,11 +9661,11 @@
       <c r="D19" s="54"/>
       <c r="E19" s="19">
         <f ca="1">E18</f>
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="F19" s="19">
         <f ca="1">E19+3</f>
-        <v>44490</v>
+        <v>44494</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="49">
@@ -9681,11 +9811,11 @@
       <c r="D21" s="58"/>
       <c r="E21" s="20">
         <f ca="1">E9+15</f>
-        <v>44490</v>
+        <v>44494</v>
       </c>
       <c r="F21" s="20">
         <f ca="1">E21+5</f>
-        <v>44495</v>
+        <v>44499</v>
       </c>
       <c r="G21" s="49"/>
       <c r="H21" s="49">
@@ -9758,11 +9888,11 @@
       <c r="D22" s="58"/>
       <c r="E22" s="20">
         <f ca="1">F21+1</f>
-        <v>44496</v>
+        <v>44500</v>
       </c>
       <c r="F22" s="20">
         <f ca="1">E22+4</f>
-        <v>44500</v>
+        <v>44504</v>
       </c>
       <c r="G22" s="49"/>
       <c r="H22" s="49">
@@ -9835,11 +9965,11 @@
       <c r="D23" s="58"/>
       <c r="E23" s="20">
         <f ca="1">E22+5</f>
-        <v>44501</v>
+        <v>44505</v>
       </c>
       <c r="F23" s="20">
         <f ca="1">E23+5</f>
-        <v>44506</v>
+        <v>44510</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="49">
@@ -9912,11 +10042,11 @@
       <c r="D24" s="58"/>
       <c r="E24" s="20">
         <f ca="1">F23+1</f>
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="F24" s="20">
         <f ca="1">E24+4</f>
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="G24" s="49"/>
       <c r="H24" s="49">
@@ -9989,11 +10119,11 @@
       <c r="D25" s="58"/>
       <c r="E25" s="20">
         <f ca="1">E23</f>
-        <v>44501</v>
+        <v>44505</v>
       </c>
       <c r="F25" s="20">
         <f ca="1">E25+4</f>
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="G25" s="49"/>
       <c r="H25" s="49">
@@ -10661,11 +10791,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -10673,6 +10798,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="37"/>
   <conditionalFormatting sqref="D7:D33">
